--- a/Green@Community_DataAnalysis/GCAP3226 G@C Survey Responses_cleaned data.xlsx
+++ b/Green@Community_DataAnalysis/GCAP3226 G@C Survey Responses_cleaned data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manyi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/Green-Community_DataAnalysis/Green@Community_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73E6D8F-94FC-4A81-90DB-873D6FEC2620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56EE63B-2C6D-BA4C-B19C-E005EC8BC882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-255" yWindow="675" windowWidth="19065" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CleanedSurveyResponses" sheetId="1" r:id="rId1"/>
@@ -202,21 +202,6 @@
   </si>
   <si>
     <r>
-      <t>你認為「綠在區區」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>提升本港回收效能的成效如何？
-How effective do you perceive the Green@Community to be in raising public environmental awareness?</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>您平均</t>
     </r>
     <r>
@@ -707,15 +692,38 @@
   <si>
     <t>Close to home, Clean environment/complete facilities</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>你認為「綠在區區」提升本港回收效能的成效如何？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+How effective do you perceive the Green@Community to be in improving Hong Kong’s recycling efficiency?</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -748,6 +756,27 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -817,25 +846,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -844,18 +873,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <family val="2"/>
-      </font>
-      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1340,6 +1365,20 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1356,29 +1395,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B3F86"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B3F86"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B3F86"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B3F86"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1405,13 +1421,29 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B3F86"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B3F86"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B3F86"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B3F86"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Form Responses 1-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" size="0" dxfId="26"/>
-      <tableStyleElement type="headerRow" dxfId="29"/>
-      <tableStyleElement type="firstRowStripe" dxfId="28"/>
-      <tableStyleElement type="secondRowStripe" dxfId="27"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="28"/>
+      <tableStyleElement type="firstRowStripe" dxfId="27"/>
+      <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1426,35 +1458,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CleanedSurveyResponses" displayName="CleanedSurveyResponses" ref="A1:W129" headerRowDxfId="24" dataDxfId="0" headerRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CleanedSurveyResponses" displayName="CleanedSurveyResponses" ref="A1:W129" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W129">
     <sortCondition ref="E2:E129"/>
     <sortCondition ref="A2:A129"/>
   </sortState>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="你多大程度同意「回收 對環保及可持續發展很重要」？_x000a_To what extent do you agree that &quot;recycling is important for environmental protection and sustainable development?&quot;" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="你認爲自己對本地回收的了解程度屬於哪一水平？_x000a_How would you rate your level of knowledge about recycling?" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="請指出下列哪些物品可以在「綠在區區」設施進行回收。_x000a_Identify which of the following item(s) can be recycled at Green@Community facilities. " dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="在最近12個月内，你有否使用過「綠在區區」回收設施？_x000a_In the past 12 months, have you used any Green@Community recycling facility?" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="你認為「綠在區區」提升公眾環保意識的成效如何？_x000a_How effective do you perceive the Green@Community to be in raising public environmental awareness?" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="你認為「綠在區區」提升本港回收效能的成效如何？_x000a_How effective do you perceive the Green@Community to be in raising public environmental awareness?" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="您平均每月使用「綠在區區」回收設施多少次？_x000a_On average, how many times per month do you use Green@Community recycling facilities?" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="你是否已登記「綠綠賞（電子）積分計劃」？_x000a_Have you registered for the GREEN$ (Electronic) Participation Incentive Scheme (GREEN$ ePIS)?" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="平均每次回收大概賺取多少綠綠賞(GREEN$)積分？_x000a_On average, how many GREEN$ points do you earn per recycling visit?" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="在未有「綠在區區」回收網絡前，你是否有回收習慣？_x000a_Before the Green@Community recycling network was introduced, did you have recycling habit?" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="為甚麼你會選擇使用「綠在區區」回收設施？_x000a_Why do you choose to use Green@Community recycling facilities?" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="你是否每次回收都只使用同一個「綠在區區」設施？_x000a_Do you use the same Green@Community facility every time you recycle?" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="你選擇使用哪個「綠在區區」設施的主要因素是什麼？_x000a_What are the main factors when choosing which Green@Community facility to use?" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="你知道你家附近「綠在區區」設施的位置嗎？_x000a_Do you know where is the Green@Community facility nearby your home?" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="步行需要多長時間才能到達距離你家最近的「綠在區區」設施？_x000a_How long does it take to get there on foot?" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="在過去12個月，你沒有使用「綠在區區」設施的原因是什麼？_x000a_What are the reasons you did not use Green@Community facilities in the past 12 months?" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="在了解以上數據後，你覺得「綠在區區」的整體效益是否令人滿意？_x000a_After reading the above, do you think Green@Community's overall effectiveness is satisfactory?" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="性別  Gender" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="年齡  Age" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="教育程度  Education level" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="就業狀况  Employment status" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="住宅樓宇類型  Type of building you live in" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="你多大程度同意「回收 對環保及可持續發展很重要」？_x000a_To what extent do you agree that &quot;recycling is important for environmental protection and sustainable development?&quot;" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="你認爲自己對本地回收的了解程度屬於哪一水平？_x000a_How would you rate your level of knowledge about recycling?" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="請指出下列哪些物品可以在「綠在區區」設施進行回收。_x000a_Identify which of the following item(s) can be recycled at Green@Community facilities. " dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="在最近12個月内，你有否使用過「綠在區區」回收設施？_x000a_In the past 12 months, have you used any Green@Community recycling facility?" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="你認為「綠在區區」提升公眾環保意識的成效如何？_x000a_How effective do you perceive the Green@Community to be in raising public environmental awareness?" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="你認為「綠在區區」提升本港回收效能的成效如何？_x000a_How effective do you perceive the Green@Community to be in improving Hong Kong’s recycling efficiency?" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="您平均每月使用「綠在區區」回收設施多少次？_x000a_On average, how many times per month do you use Green@Community recycling facilities?" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="你是否已登記「綠綠賞（電子）積分計劃」？_x000a_Have you registered for the GREEN$ (Electronic) Participation Incentive Scheme (GREEN$ ePIS)?" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="平均每次回收大概賺取多少綠綠賞(GREEN$)積分？_x000a_On average, how many GREEN$ points do you earn per recycling visit?" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="在未有「綠在區區」回收網絡前，你是否有回收習慣？_x000a_Before the Green@Community recycling network was introduced, did you have recycling habit?" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="為甚麼你會選擇使用「綠在區區」回收設施？_x000a_Why do you choose to use Green@Community recycling facilities?" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="你是否每次回收都只使用同一個「綠在區區」設施？_x000a_Do you use the same Green@Community facility every time you recycle?" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="你選擇使用哪個「綠在區區」設施的主要因素是什麼？_x000a_What are the main factors when choosing which Green@Community facility to use?" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="你知道你家附近「綠在區區」設施的位置嗎？_x000a_Do you know where is the Green@Community facility nearby your home?" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="步行需要多長時間才能到達距離你家最近的「綠在區區」設施？_x000a_How long does it take to get there on foot?" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="在過去12個月，你沒有使用「綠在區區」設施的原因是什麼？_x000a_What are the reasons you did not use Green@Community facilities in the past 12 months?" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="在了解以上數據後，你覺得「綠在區區」的整體效益是否令人滿意？_x000a_After reading the above, do you think Green@Community's overall effectiveness is satisfactory?" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="性別  Gender" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="年齡  Age" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="教育程度  Education level" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="就業狀况  Employment status" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="住宅樓宇類型  Type of building you live in" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1663,40 +1695,40 @@
   </sheetPr>
   <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="67" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="78.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" customWidth="1"/>
     <col min="11" max="11" width="44" customWidth="1"/>
-    <col min="12" max="12" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.140625" customWidth="1"/>
-    <col min="14" max="14" width="122.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" customWidth="1"/>
-    <col min="17" max="17" width="154.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="81.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.1640625" customWidth="1"/>
+    <col min="14" max="14" width="122.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.83203125" customWidth="1"/>
+    <col min="17" max="17" width="154.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="24" customWidth="1"/>
     <col min="22" max="22" width="20" customWidth="1"/>
-    <col min="23" max="23" width="16.5703125" customWidth="1"/>
-    <col min="24" max="29" width="18.85546875" customWidth="1"/>
+    <col min="23" max="23" width="16.5" customWidth="1"/>
+    <col min="24" max="29" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1715,11 +1747,11 @@
       <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>2</v>
@@ -1737,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>6</v>
@@ -1767,7 +1799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>45950.815289351849</v>
       </c>
@@ -1778,10 +1810,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="8">
         <v>4</v>
@@ -1790,25 +1822,25 @@
         <v>4</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -1817,22 +1849,22 @@
         <v>1</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>45950.829722222225</v>
       </c>
@@ -1843,10 +1875,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="3">
         <v>4</v>
@@ -1855,25 +1887,25 @@
         <v>4</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -1882,22 +1914,22 @@
         <v>2</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>45950.830092546297</v>
       </c>
@@ -1908,10 +1940,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
@@ -1920,25 +1952,25 @@
         <v>2</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -1947,22 +1979,22 @@
         <v>2</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>45950.832129710645</v>
       </c>
@@ -1973,10 +2005,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1985,25 +2017,25 @@
         <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -2012,22 +2044,22 @@
         <v>2</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>45950.832430555558</v>
       </c>
@@ -2038,10 +2070,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="3">
         <v>3</v>
@@ -2050,25 +2082,25 @@
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -2077,22 +2109,22 @@
         <v>1</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>45950.837905092594</v>
       </c>
@@ -2103,10 +2135,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="3">
         <v>3</v>
@@ -2115,25 +2147,25 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -2142,22 +2174,22 @@
         <v>2</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>45950.841284722221</v>
       </c>
@@ -2168,10 +2200,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="3">
         <v>3</v>
@@ -2180,25 +2212,25 @@
         <v>3</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -2207,22 +2239,22 @@
         <v>1</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>45950.876203078704</v>
       </c>
@@ -2233,10 +2265,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="3">
         <v>2</v>
@@ -2245,25 +2277,25 @@
         <v>2</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -2272,22 +2304,22 @@
         <v>2</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>45950.880760243061</v>
       </c>
@@ -2298,10 +2330,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -2310,25 +2342,25 @@
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -2337,22 +2369,22 @@
         <v>2</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>45950.891552534726</v>
       </c>
@@ -2363,10 +2395,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="3">
         <v>3</v>
@@ -2375,25 +2407,25 @@
         <v>3</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -2402,22 +2434,22 @@
         <v>3</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>45951.489425613428</v>
       </c>
@@ -2428,10 +2460,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="3">
         <v>3</v>
@@ -2440,25 +2472,25 @@
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="N12" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -2467,22 +2499,22 @@
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>45951.52641269676</v>
       </c>
@@ -2493,10 +2525,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3">
         <v>3</v>
@@ -2505,25 +2537,25 @@
         <v>3</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -2532,22 +2564,22 @@
         <v>3</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>45951.554937743058</v>
       </c>
@@ -2558,10 +2590,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="3">
         <v>4</v>
@@ -2570,25 +2602,25 @@
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -2597,22 +2629,22 @@
         <v>2</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>45951.559479166666</v>
       </c>
@@ -2623,10 +2655,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
@@ -2635,25 +2667,25 @@
         <v>2</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -2662,22 +2694,22 @@
         <v>1</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>45951.565892222221</v>
       </c>
@@ -2688,10 +2720,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="3">
         <v>3</v>
@@ -2700,25 +2732,25 @@
         <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -2727,22 +2759,22 @@
         <v>3</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>45951.566793981481</v>
       </c>
@@ -2753,10 +2785,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="3">
         <v>3</v>
@@ -2765,25 +2797,25 @@
         <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -2792,22 +2824,22 @@
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>45951.621626030093</v>
       </c>
@@ -2818,10 +2850,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
@@ -2830,25 +2862,25 @@
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -2857,22 +2889,22 @@
         <v>2</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>45951.675595428242</v>
       </c>
@@ -2883,10 +2915,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="3">
         <v>3</v>
@@ -2895,25 +2927,25 @@
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -2922,22 +2954,22 @@
         <v>3</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>45951.685437002314</v>
       </c>
@@ -2948,10 +2980,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
@@ -2960,25 +2992,25 @@
         <v>2</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="N20" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -2987,22 +3019,22 @@
         <v>2</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>45951.68622265046</v>
       </c>
@@ -3013,10 +3045,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="3">
         <v>3</v>
@@ -3025,25 +3057,25 @@
         <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -3052,22 +3084,22 @@
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>45951.688678414357</v>
       </c>
@@ -3078,10 +3110,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="3">
         <v>3</v>
@@ -3090,25 +3122,25 @@
         <v>3</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -3117,22 +3149,22 @@
         <v>2</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>45951.716576284722</v>
       </c>
@@ -3143,10 +3175,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="3">
         <v>3</v>
@@ -3155,25 +3187,25 @@
         <v>3</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3182,22 +3214,22 @@
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>45951.771899513886</v>
       </c>
@@ -3208,10 +3240,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="3">
         <v>4</v>
@@ -3220,25 +3252,25 @@
         <v>4</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -3247,22 +3279,22 @@
         <v>4</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>45951.839889884257</v>
       </c>
@@ -3273,10 +3305,10 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="3">
         <v>3</v>
@@ -3285,25 +3317,25 @@
         <v>3</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -3312,22 +3344,22 @@
         <v>3</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>45951.845511597217</v>
       </c>
@@ -3338,10 +3370,10 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="3">
         <v>3</v>
@@ -3350,25 +3382,25 @@
         <v>3</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -3377,22 +3409,22 @@
         <v>2</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>45951.887650949073</v>
       </c>
@@ -3403,10 +3435,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="3">
         <v>3</v>
@@ -3415,25 +3447,25 @@
         <v>2</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="N27" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -3442,22 +3474,22 @@
         <v>1</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>45951.964450706015</v>
       </c>
@@ -3468,10 +3500,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="3">
         <v>4</v>
@@ -3480,25 +3512,25 @@
         <v>4</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -3507,22 +3539,22 @@
         <v>2</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>45952.583786192132</v>
       </c>
@@ -3533,10 +3565,10 @@
         <v>4</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="3">
         <v>4</v>
@@ -3545,25 +3577,25 @@
         <v>4</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3572,22 +3604,22 @@
         <v>4</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>45952.810341400458</v>
       </c>
@@ -3598,10 +3630,10 @@
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="3">
         <v>3</v>
@@ -3610,25 +3642,25 @@
         <v>3</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -3637,22 +3669,22 @@
         <v>3</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>45952.821551932866</v>
       </c>
@@ -3663,10 +3695,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" s="3">
         <v>2</v>
@@ -3675,25 +3707,25 @@
         <v>2</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -3702,22 +3734,22 @@
         <v>1</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>45953.221856273143</v>
       </c>
@@ -3728,10 +3760,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="3">
         <v>3</v>
@@ -3740,25 +3772,25 @@
         <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="N32" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -3767,22 +3799,22 @@
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>45953.359866400468</v>
       </c>
@@ -3793,10 +3825,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" s="3">
         <v>3</v>
@@ -3805,25 +3837,25 @@
         <v>3</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -3832,22 +3864,22 @@
         <v>2</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>45953.453455706018</v>
       </c>
@@ -3858,10 +3890,10 @@
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F34" s="3">
         <v>3</v>
@@ -3870,25 +3902,25 @@
         <v>3</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="N34" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -3897,22 +3929,22 @@
         <v>3</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T34" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>45953.504966145832</v>
       </c>
@@ -3923,10 +3955,10 @@
         <v>4</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" s="3">
         <v>4</v>
@@ -3935,25 +3967,25 @@
         <v>4</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -3962,22 +3994,22 @@
         <v>2</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>45953.680341400468</v>
       </c>
@@ -3988,10 +4020,10 @@
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" s="3">
         <v>2</v>
@@ -4000,25 +4032,25 @@
         <v>2</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -4027,22 +4059,22 @@
         <v>2</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T36" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>45953.702363078701</v>
       </c>
@@ -4053,10 +4085,10 @@
         <v>4</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37" s="3">
         <v>3</v>
@@ -4065,25 +4097,25 @@
         <v>2</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -4092,22 +4124,22 @@
         <v>2</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>45953.70275462963</v>
       </c>
@@ -4118,10 +4150,10 @@
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="3">
         <v>3</v>
@@ -4130,25 +4162,25 @@
         <v>3</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -4157,22 +4189,22 @@
         <v>3</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T38" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>45953.705659722225</v>
       </c>
@@ -4183,10 +4215,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="3">
         <v>3</v>
@@ -4195,25 +4227,25 @@
         <v>3</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
@@ -4222,22 +4254,22 @@
         <v>3</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T39" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>45955.425763888888</v>
       </c>
@@ -4248,10 +4280,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F40" s="3">
         <v>4</v>
@@ -4260,25 +4292,25 @@
         <v>4</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
@@ -4287,22 +4319,22 @@
         <v>4</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T40" s="3" t="s">
         <v>20</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>45955.474479166667</v>
       </c>
@@ -4313,10 +4345,10 @@
         <v>4</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F41" s="3">
         <v>4</v>
@@ -4325,25 +4357,25 @@
         <v>4</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
@@ -4352,22 +4384,22 @@
         <v>4</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>45955.481099537035</v>
       </c>
@@ -4378,10 +4410,10 @@
         <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42" s="3">
         <v>4</v>
@@ -4390,25 +4422,25 @@
         <v>3</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
@@ -4417,22 +4449,22 @@
         <v>3</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>45955.481261574074</v>
       </c>
@@ -4443,10 +4475,10 @@
         <v>4</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" s="3">
         <v>4</v>
@@ -4455,25 +4487,25 @@
         <v>3</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -4482,22 +4514,22 @@
         <v>2</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>18</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>45955.527017916669</v>
       </c>
@@ -4508,10 +4540,10 @@
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" s="3">
         <v>4</v>
@@ -4520,25 +4552,25 @@
         <v>4</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="N44" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
@@ -4547,22 +4579,22 @@
         <v>3</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>17</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>45955.529528715277</v>
       </c>
@@ -4573,10 +4605,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F45" s="3">
         <v>2</v>
@@ -4585,25 +4617,25 @@
         <v>1</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
@@ -4612,22 +4644,22 @@
         <v>1</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>20</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>45955.534779085647</v>
       </c>
@@ -4638,10 +4670,10 @@
         <v>3</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F46" s="3">
         <v>3</v>
@@ -4650,25 +4682,25 @@
         <v>3</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
@@ -4677,22 +4709,22 @@
         <v>3</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>45955.538039108797</v>
       </c>
@@ -4703,10 +4735,10 @@
         <v>3</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F47" s="3">
         <v>3</v>
@@ -4715,25 +4747,25 @@
         <v>3</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
@@ -4742,22 +4774,22 @@
         <v>3</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45955.542379131948</v>
       </c>
@@ -4768,10 +4800,10 @@
         <v>3</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F48" s="3">
         <v>3</v>
@@ -4780,25 +4812,25 @@
         <v>2</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
@@ -4807,22 +4839,22 @@
         <v>3</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>45955.546157962963</v>
       </c>
@@ -4833,10 +4865,10 @@
         <v>3</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F49" s="3">
         <v>3</v>
@@ -4845,25 +4877,25 @@
         <v>4</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
@@ -4872,22 +4904,22 @@
         <v>3</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>45955.656567800921</v>
       </c>
@@ -4898,10 +4930,10 @@
         <v>3</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F50" s="3">
         <v>3</v>
@@ -4910,25 +4942,25 @@
         <v>3</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -4937,22 +4969,22 @@
         <v>2</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>20</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>45956.811440173609</v>
       </c>
@@ -4963,10 +4995,10 @@
         <v>3</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F51" s="3">
         <v>3</v>
@@ -4975,25 +5007,25 @@
         <v>3</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
@@ -5002,22 +5034,22 @@
         <v>2</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>45958.519191226849</v>
       </c>
@@ -5028,10 +5060,10 @@
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F52" s="3">
         <v>1</v>
@@ -5040,25 +5072,25 @@
         <v>3</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
@@ -5067,22 +5099,22 @@
         <v>2</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>45950.798291388885</v>
       </c>
@@ -5093,10 +5125,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F53" s="3">
         <v>1</v>
@@ -5112,34 +5144,34 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R53" s="3">
         <v>1</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T53" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>45950.805528321755</v>
       </c>
@@ -5150,10 +5182,10 @@
         <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F54" s="3">
         <v>2</v>
@@ -5169,34 +5201,34 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R54" s="3">
         <v>1</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>45950.808716886575</v>
       </c>
@@ -5207,10 +5239,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F55" s="3">
         <v>2</v>
@@ -5226,34 +5258,34 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R55" s="3">
         <v>2</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T55" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>45950.826617291663</v>
       </c>
@@ -5264,10 +5296,10 @@
         <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F56" s="3">
         <v>3</v>
@@ -5283,34 +5315,34 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R56" s="3">
         <v>3</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>45950.829537743055</v>
       </c>
@@ -5321,10 +5353,10 @@
         <v>3</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F57" s="3">
         <v>1</v>
@@ -5340,34 +5372,34 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R57" s="3">
         <v>1</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>45950.832394930556</v>
       </c>
@@ -5378,10 +5410,10 @@
         <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F58" s="3">
         <v>3</v>
@@ -5397,34 +5429,34 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R58" s="3">
         <v>2</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>45950.83330056713</v>
       </c>
@@ -5435,10 +5467,10 @@
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F59" s="3">
         <v>3</v>
@@ -5454,34 +5486,34 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R59" s="3">
         <v>2</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>45950.839310034724</v>
       </c>
@@ -5492,10 +5524,10 @@
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F60" s="3">
         <v>3</v>
@@ -5511,34 +5543,34 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R60" s="3">
         <v>2</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>18</v>
       </c>
       <c r="U60" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>45950.840477905091</v>
       </c>
@@ -5549,10 +5581,10 @@
         <v>3</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F61" s="3">
         <v>2</v>
@@ -5568,34 +5600,34 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R61" s="3">
         <v>1</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W61" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="W61" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>45950.861643483797</v>
       </c>
@@ -5606,10 +5638,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F62" s="3">
         <v>2</v>
@@ -5625,34 +5657,34 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R62" s="3">
         <v>3</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>45950.905821759261</v>
       </c>
@@ -5663,10 +5695,10 @@
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F63" s="3">
         <v>2</v>
@@ -5682,34 +5714,34 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R63" s="3">
         <v>1</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T63" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>45950.964879641208</v>
       </c>
@@ -5720,10 +5752,10 @@
         <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F64" s="3">
         <v>1</v>
@@ -5739,34 +5771,34 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R64" s="3">
         <v>1</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T64" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U64" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>45950.987696759257</v>
       </c>
@@ -5777,10 +5809,10 @@
         <v>3</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F65" s="3">
         <v>2</v>
@@ -5796,34 +5828,34 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R65" s="3">
         <v>1</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T65" s="3" t="s">
         <v>18</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>45951.483606435184</v>
       </c>
@@ -5834,10 +5866,10 @@
         <v>2</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F66" s="3">
         <v>3</v>
@@ -5853,34 +5885,34 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R66" s="3">
         <v>3</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>45951.49681405093</v>
       </c>
@@ -5891,10 +5923,10 @@
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F67" s="3">
         <v>2</v>
@@ -5910,34 +5942,34 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R67" s="3">
         <v>1</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T67" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U67" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>45951.500637638892</v>
       </c>
@@ -5948,10 +5980,10 @@
         <v>2</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F68" s="3">
         <v>3</v>
@@ -5967,34 +5999,34 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R68" s="3">
         <v>2</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U68" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>45951.515711250002</v>
       </c>
@@ -6005,10 +6037,10 @@
         <v>2</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F69" s="3">
         <v>3</v>
@@ -6024,34 +6056,34 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R69" s="3">
         <v>2</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T69" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U69" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V69" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>45951.550228680557</v>
       </c>
@@ -6062,10 +6094,10 @@
         <v>1</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F70" s="3">
         <v>1</v>
@@ -6081,34 +6113,34 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R70" s="3">
         <v>2</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T70" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U70" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>45951.552288009261</v>
       </c>
@@ -6119,10 +6151,10 @@
         <v>2</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F71" s="3">
         <v>3</v>
@@ -6138,34 +6170,34 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R71" s="3">
         <v>1</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U71" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>45951.557858796295</v>
       </c>
@@ -6176,10 +6208,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F72" s="3">
         <v>2</v>
@@ -6195,34 +6227,34 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R72" s="3">
         <v>3</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U72" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>45951.558657407404</v>
       </c>
@@ -6233,10 +6265,10 @@
         <v>3</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F73" s="3">
         <v>2</v>
@@ -6252,34 +6284,34 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R73" s="3">
         <v>2</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T73" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U73" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>45951.585991168977</v>
       </c>
@@ -6290,10 +6322,10 @@
         <v>3</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F74" s="3">
         <v>3</v>
@@ -6309,34 +6341,34 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R74" s="3">
         <v>2</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T74" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>45951.587247291667</v>
       </c>
@@ -6347,10 +6379,10 @@
         <v>2</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F75" s="3">
         <v>3</v>
@@ -6366,34 +6398,34 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R75" s="3">
         <v>2</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T75" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U75" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>45951.602029467591</v>
       </c>
@@ -6404,10 +6436,10 @@
         <v>2</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F76" s="3">
         <v>2</v>
@@ -6423,34 +6455,34 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R76" s="3">
         <v>3</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V76" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>45951.611993298611</v>
       </c>
@@ -6461,10 +6493,10 @@
         <v>2</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F77" s="3">
         <v>3</v>
@@ -6480,34 +6512,34 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R77" s="3">
         <v>2</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T77" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U77" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>45951.663630636569</v>
       </c>
@@ -6518,10 +6550,10 @@
         <v>2</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F78" s="3">
         <v>3</v>
@@ -6537,34 +6569,34 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R78" s="3">
         <v>1</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T78" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>45951.67742015046</v>
       </c>
@@ -6575,10 +6607,10 @@
         <v>2</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F79" s="3">
         <v>3</v>
@@ -6594,34 +6626,34 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R79" s="3">
         <v>2</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T79" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U79" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V79" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>45951.682543148148</v>
       </c>
@@ -6632,10 +6664,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F80" s="3">
         <v>3</v>
@@ -6651,34 +6683,34 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R80" s="3">
         <v>2</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U80" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>45951.687135127315</v>
       </c>
@@ -6689,10 +6721,10 @@
         <v>2</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F81" s="3">
         <v>2</v>
@@ -6708,34 +6740,34 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R81" s="3">
         <v>1</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U81" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V81" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>45951.6875462963</v>
       </c>
@@ -6746,10 +6778,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F82" s="3">
         <v>4</v>
@@ -6765,34 +6797,34 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R82" s="3">
         <v>1</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T82" s="3" t="s">
         <v>17</v>
       </c>
       <c r="U82" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W82" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>45951.693720358795</v>
       </c>
@@ -6803,10 +6835,10 @@
         <v>1</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F83" s="3">
         <v>1</v>
@@ -6822,34 +6854,34 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R83" s="3">
         <v>2</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U83" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V83" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W83" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>45951.701135289353</v>
       </c>
@@ -6860,10 +6892,10 @@
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F84" s="3">
         <v>3</v>
@@ -6879,34 +6911,34 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P84" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R84" s="3">
         <v>2</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T84" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U84" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V84" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W84" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>45951.712152777778</v>
       </c>
@@ -6917,10 +6949,10 @@
         <v>2</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F85" s="3">
         <v>2</v>
@@ -6936,34 +6968,34 @@
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R85" s="3">
         <v>1</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T85" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U85" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V85" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W85" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>45951.745178171295</v>
       </c>
@@ -6974,10 +7006,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F86" s="3">
         <v>3</v>
@@ -6993,34 +7025,34 @@
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R86" s="3">
         <v>2</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T86" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U86" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V86" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W86" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>45951.781633715276</v>
       </c>
@@ -7031,10 +7063,10 @@
         <v>2</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F87" s="3">
         <v>2</v>
@@ -7050,34 +7082,34 @@
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R87" s="3">
         <v>3</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T87" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U87" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V87" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>45951.792504953701</v>
       </c>
@@ -7088,10 +7120,10 @@
         <v>2</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F88" s="3">
         <v>2</v>
@@ -7107,34 +7139,34 @@
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R88" s="3">
         <v>3</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U88" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V88" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W88" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>45951.835886087967</v>
       </c>
@@ -7145,10 +7177,10 @@
         <v>3</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F89" s="3">
         <v>3</v>
@@ -7164,34 +7196,34 @@
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R89" s="3">
         <v>2</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T89" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U89" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V89" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W89" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>45951.858112256945</v>
       </c>
@@ -7202,10 +7234,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F90" s="3">
         <v>2</v>
@@ -7221,34 +7253,34 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R90" s="3">
         <v>3</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U90" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V90" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W90" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>45951.861065636578</v>
       </c>
@@ -7259,10 +7291,10 @@
         <v>2</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F91" s="3">
         <v>2</v>
@@ -7278,34 +7310,34 @@
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R91" s="3">
         <v>2</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U91" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V91" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W91" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>45951.870969768519</v>
       </c>
@@ -7316,10 +7348,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F92" s="3">
         <v>3</v>
@@ -7335,34 +7367,34 @@
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R92" s="3">
         <v>1</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T92" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U92" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V92" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W92" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>45951.904508842592</v>
       </c>
@@ -7373,10 +7405,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F93" s="3">
         <v>3</v>
@@ -7392,34 +7424,34 @@
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P93" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R93" s="3">
         <v>3</v>
       </c>
       <c r="S93" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T93" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U93" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V93" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W93" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>45951.91524913194</v>
       </c>
@@ -7430,10 +7462,10 @@
         <v>2</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F94" s="3">
         <v>2</v>
@@ -7449,34 +7481,34 @@
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R94" s="3">
         <v>1</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U94" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V94" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W94" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>45951.916887245374</v>
       </c>
@@ -7487,10 +7519,10 @@
         <v>2</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F95" s="3">
         <v>2</v>
@@ -7506,34 +7538,34 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P95" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R95" s="3">
         <v>2</v>
       </c>
       <c r="S95" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T95" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U95" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V95" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W95" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>45951.962844421301</v>
       </c>
@@ -7544,10 +7576,10 @@
         <v>1</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F96" s="3">
         <v>3</v>
@@ -7563,34 +7595,34 @@
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R96" s="3">
         <v>1</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T96" s="3" t="s">
         <v>18</v>
       </c>
       <c r="U96" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V96" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W96" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>45951.981387326392</v>
       </c>
@@ -7601,10 +7633,10 @@
         <v>2</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F97" s="3">
         <v>1</v>
@@ -7620,34 +7652,34 @@
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R97" s="3">
         <v>1</v>
       </c>
       <c r="S97" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T97" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U97" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V97" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W97" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>45952.070490034719</v>
       </c>
@@ -7658,10 +7690,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F98" s="3">
         <v>3</v>
@@ -7677,34 +7709,34 @@
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R98" s="3">
         <v>2</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T98" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U98" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V98" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W98" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>45952.318285370369</v>
       </c>
@@ -7715,10 +7747,10 @@
         <v>2</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F99" s="3">
         <v>1</v>
@@ -7734,34 +7766,34 @@
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R99" s="3">
         <v>1</v>
       </c>
       <c r="S99" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T99" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U99" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V99" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W99" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>45952.679756944446</v>
       </c>
@@ -7772,10 +7804,10 @@
         <v>2</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F100" s="3">
         <v>2</v>
@@ -7791,34 +7823,34 @@
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P100" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R100" s="3">
         <v>1</v>
       </c>
       <c r="S100" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U100" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V100" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W100" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>45952.693425925929</v>
       </c>
@@ -7829,10 +7861,10 @@
         <v>2</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F101" s="3">
         <v>2</v>
@@ -7848,34 +7880,34 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R101" s="3">
         <v>1</v>
       </c>
       <c r="S101" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U101" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V101" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W101" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>45952.72468777778</v>
       </c>
@@ -7886,10 +7918,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F102" s="3">
         <v>2</v>
@@ -7905,34 +7937,34 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P102" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R102" s="3">
         <v>2</v>
       </c>
       <c r="S102" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>20</v>
       </c>
       <c r="U102" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V102" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W102" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>45952.787953634259</v>
       </c>
@@ -7943,10 +7975,10 @@
         <v>3</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F103" s="3">
         <v>2</v>
@@ -7962,34 +7994,34 @@
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R103" s="3">
         <v>2</v>
       </c>
       <c r="S103" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U103" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V103" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W103" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>45952.973224942129</v>
       </c>
@@ -8000,10 +8032,10 @@
         <v>2</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F104" s="3">
         <v>2</v>
@@ -8019,34 +8051,34 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R104" s="3">
         <v>2</v>
       </c>
       <c r="S104" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T104" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U104" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V104" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W104" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>45952.973289583329</v>
       </c>
@@ -8057,10 +8089,10 @@
         <v>2</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F105" s="3">
         <v>2</v>
@@ -8076,34 +8108,34 @@
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R105" s="3">
         <v>2</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U105" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V105" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W105" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>45952.975801180553</v>
       </c>
@@ -8114,10 +8146,10 @@
         <v>2</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F106" s="3">
         <v>2</v>
@@ -8133,34 +8165,34 @@
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R106" s="3">
         <v>2</v>
       </c>
       <c r="S106" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T106" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U106" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V106" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W106" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>45952.996743344906</v>
       </c>
@@ -8171,10 +8203,10 @@
         <v>3</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F107" s="3">
         <v>2</v>
@@ -8190,34 +8222,34 @@
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
       <c r="O107" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R107" s="3">
         <v>2</v>
       </c>
       <c r="S107" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U107" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V107" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W107" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>45953.011934641203</v>
       </c>
@@ -8228,10 +8260,10 @@
         <v>3</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
@@ -8247,34 +8279,34 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P108" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R108" s="3">
         <v>1</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T108" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U108" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V108" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W108" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>45953.435371990738</v>
       </c>
@@ -8285,10 +8317,10 @@
         <v>2</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F109" s="3">
         <v>2</v>
@@ -8304,34 +8336,34 @@
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
       <c r="O109" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P109" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R109" s="3">
         <v>2</v>
       </c>
       <c r="S109" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T109" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U109" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V109" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W109" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>45953.484368668986</v>
       </c>
@@ -8342,10 +8374,10 @@
         <v>1</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -8361,34 +8393,34 @@
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
       <c r="O110" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R110" s="3">
         <v>1</v>
       </c>
       <c r="S110" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T110" s="3" t="s">
         <v>20</v>
       </c>
       <c r="U110" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V110" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W110" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>45953.485667627319</v>
       </c>
@@ -8399,10 +8431,10 @@
         <v>2</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F111" s="3">
         <v>1</v>
@@ -8418,34 +8450,34 @@
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P111" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R111" s="3">
         <v>1</v>
       </c>
       <c r="S111" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T111" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U111" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V111" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W111" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>45953.507687395831</v>
       </c>
@@ -8456,10 +8488,10 @@
         <v>2</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F112" s="3">
         <v>2</v>
@@ -8475,34 +8507,34 @@
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
       <c r="O112" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P112" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R112" s="3">
         <v>2</v>
       </c>
       <c r="S112" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T112" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V112" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W112" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>45953.508564560187</v>
       </c>
@@ -8513,10 +8545,10 @@
         <v>2</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F113" s="3">
         <v>3</v>
@@ -8532,34 +8564,34 @@
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q113" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R113" s="3">
         <v>2</v>
       </c>
       <c r="S113" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T113" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U113" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V113" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W113" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>45953.53383443287</v>
       </c>
@@ -8570,10 +8602,10 @@
         <v>2</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F114" s="3">
         <v>3</v>
@@ -8589,34 +8621,34 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P114" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R114" s="3">
         <v>2</v>
       </c>
       <c r="S114" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T114" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U114" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V114" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W114" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>45953.538460335651</v>
       </c>
@@ -8627,10 +8659,10 @@
         <v>2</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F115" s="3">
         <v>3</v>
@@ -8646,34 +8678,34 @@
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P115" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R115" s="3">
         <v>3</v>
       </c>
       <c r="S115" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U115" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V115" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W115" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>45953.596844953703</v>
       </c>
@@ -8684,10 +8716,10 @@
         <v>2</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F116" s="3">
         <v>2</v>
@@ -8703,34 +8735,34 @@
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P116" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R116" s="3">
         <v>3</v>
       </c>
       <c r="S116" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U116" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V116" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W116" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="117" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>45953.651031076384</v>
       </c>
@@ -8741,10 +8773,10 @@
         <v>3</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F117" s="3">
         <v>1</v>
@@ -8760,34 +8792,34 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P117" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q117" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R117" s="3">
         <v>2</v>
       </c>
       <c r="S117" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T117" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U117" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V117" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W117" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>45953.702212453703</v>
       </c>
@@ -8798,10 +8830,10 @@
         <v>3</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F118" s="3">
         <v>3</v>
@@ -8817,34 +8849,34 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P118" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q118" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R118" s="3">
         <v>2</v>
       </c>
       <c r="S118" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T118" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U118" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V118" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W118" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>45953.704132256942</v>
       </c>
@@ -8855,10 +8887,10 @@
         <v>2</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F119" s="3">
         <v>2</v>
@@ -8874,34 +8906,34 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P119" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R119" s="3">
         <v>2</v>
       </c>
       <c r="S119" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T119" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U119" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V119" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W119" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>45954.66128472222</v>
       </c>
@@ -8912,10 +8944,10 @@
         <v>1</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F120" s="3">
         <v>2</v>
@@ -8931,34 +8963,34 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P120" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R120" s="3">
         <v>2</v>
       </c>
       <c r="S120" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T120" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U120" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V120" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W120" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>45954.702037037037</v>
       </c>
@@ -8969,10 +9001,10 @@
         <v>2</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F121" s="3">
         <v>3</v>
@@ -8988,34 +9020,34 @@
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P121" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R121" s="3">
         <v>2</v>
       </c>
       <c r="S121" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T121" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U121" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V121" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W121" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="122" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>45954.758402777778</v>
       </c>
@@ -9026,10 +9058,10 @@
         <v>1</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9045,34 +9077,34 @@
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P122" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R122" s="3">
         <v>1</v>
       </c>
       <c r="S122" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T122" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U122" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V122" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W122" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>45956.595000000001</v>
       </c>
@@ -9083,10 +9115,10 @@
         <v>1</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F123" s="3">
         <v>2</v>
@@ -9102,34 +9134,34 @@
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P123" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R123" s="3">
         <v>1</v>
       </c>
       <c r="S123" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T123" s="3" t="s">
         <v>18</v>
       </c>
       <c r="U123" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V123" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W123" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="124" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>45956.694039351853</v>
       </c>
@@ -9140,10 +9172,10 @@
         <v>2</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F124" s="3">
         <v>2</v>
@@ -9159,34 +9191,34 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P124" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q124" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R124" s="3">
         <v>1</v>
       </c>
       <c r="S124" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U124" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V124" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W124" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>45956.700111076389</v>
       </c>
@@ -9197,10 +9229,10 @@
         <v>3</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F125" s="3">
         <v>2</v>
@@ -9216,34 +9248,34 @@
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P125" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q125" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R125" s="3">
         <v>1</v>
       </c>
       <c r="S125" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T125" s="3" t="s">
         <v>20</v>
       </c>
       <c r="U125" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V125" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W125" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>45957.004520381946</v>
       </c>
@@ -9254,10 +9286,10 @@
         <v>3</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F126" s="3">
         <v>2</v>
@@ -9273,34 +9305,34 @@
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P126" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q126" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R126" s="3">
         <v>2</v>
       </c>
       <c r="S126" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T126" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U126" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V126" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W126" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>45957.887754629628</v>
       </c>
@@ -9311,10 +9343,10 @@
         <v>2</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F127" s="3">
         <v>2</v>
@@ -9330,34 +9362,34 @@
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P127" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q127" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R127" s="3">
         <v>1</v>
       </c>
       <c r="S127" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T127" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U127" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V127" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W127" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>45958.676874999997</v>
       </c>
@@ -9368,10 +9400,10 @@
         <v>1</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9387,34 +9419,34 @@
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P128" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q128" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R128" s="3">
         <v>1</v>
       </c>
       <c r="S128" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T128" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U128" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V128" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W128" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="129" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>45958.677187499998</v>
       </c>
@@ -9425,10 +9457,10 @@
         <v>2</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F129" s="3">
         <v>2</v>
@@ -9444,34 +9476,35 @@
       <c r="M129" s="9"/>
       <c r="N129" s="9"/>
       <c r="O129" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q129" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R129" s="3">
         <v>1</v>
       </c>
       <c r="S129" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T129" s="3" t="s">
         <v>18</v>
       </c>
       <c r="U129" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V129" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W129" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Green@Community_DataAnalysis/GCAP3226 G@C Survey Responses_cleaned data.xlsx
+++ b/Green@Community_DataAnalysis/GCAP3226 G@C Survey Responses_cleaned data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/Green-Community_DataAnalysis/Green@Community_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56EE63B-2C6D-BA4C-B19C-E005EC8BC882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F210131C-EBF1-2D47-8CCB-EB60375D7696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,24 +81,8 @@
 Why do you choose to use Green@Community recycling facilities?</t>
   </si>
   <si>
-    <t>你是否每次回收都只使用同一個「綠在區區」設施？
-Do you use the same Green@Community facility every time you recycle?</t>
-  </si>
-  <si>
-    <t>你知道你家附近「綠在區區」設施的位置嗎？
-Do you know where is the Green@Community facility nearby your home?</t>
-  </si>
-  <si>
     <t>步行需要多長時間才能到達距離你家最近的「綠在區區」設施？
 How long does it take to get there on foot?</t>
-  </si>
-  <si>
-    <t>在過去12個月，你沒有使用「綠在區區」設施的原因是什麼？
-What are the reasons you did not use Green@Community facilities in the past 12 months?</t>
-  </si>
-  <si>
-    <t>在了解以上數據後，你覺得「綠在區區」的整體效益是否令人滿意？
-After reading the above, do you think Green@Community's overall effectiveness is satisfactory?</t>
   </si>
   <si>
     <t>性別  Gender</t>
@@ -198,36 +182,6 @@
       </rPr>
       <t>最近12個月内，你有否使用過「綠在區區」回收設施？
 In the past 12 months, have you used any Green@Community recycling facility?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>您平均</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>每月使用「綠在區區」回收設施多少次？
-On average, how many times per month do you use Green@Community recycling facilities?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>你</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>選擇使用哪個「綠在區區」設施的主要因素是什麼？
-What are the main factors when choosing which Green@Community facility to use?</t>
     </r>
   </si>
   <si>
@@ -709,9 +663,172 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
 How effective do you perceive the Green@Community to be in improving Hong Kong’s recycling efficiency?</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>您平均每月使用「綠在區區」回收設施多少次？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+On average, how many times per month do you use Green@Community recycling facilities?</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>你是否每次回收都只使用同一個「綠在區區」設施？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Do you use the same Green@Community facility every time you recycle?</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>你選擇使用哪個「綠在區區」設施的主要因素是什麼？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+What are the main factors when choosing which Green@Community facility to use?</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>你知道你家附近「綠在區區」設施的位置嗎？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Do you know where is the Green@Community facility nearby your home?</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在過去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個月，你沒有使用「綠在區區」設施的原因是什麼？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+What are the reasons you did not use Green@Community facilities in the past 12 months?</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在了解以上數據後，你覺得「綠在區區」的整體效益是否令人滿意？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+After reading the above, do you think Green@Community's overall effectiveness is satisfactory?</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -723,7 +840,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -777,6 +894,14 @@
       <name val="Microsoft JhengHei"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -846,7 +971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -874,6 +999,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1695,9 +1823,9 @@
   </sheetPr>
   <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="67" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="50" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W2" sqref="W2:W129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1733,70 +1861,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -1810,37 +1938,37 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="8">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8">
+        <v>4</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="8">
-        <v>4</v>
-      </c>
-      <c r="G2" s="8">
-        <v>4</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="L2" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -1849,19 +1977,19 @@
         <v>1</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -1875,37 +2003,37 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="3">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="L3" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -1914,19 +2042,19 @@
         <v>2</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -1940,10 +2068,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
@@ -1952,25 +2080,25 @@
         <v>2</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -1979,19 +2107,19 @@
         <v>2</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2005,10 +2133,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -2017,25 +2145,25 @@
         <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -2044,19 +2172,19 @@
         <v>2</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2070,10 +2198,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F6" s="3">
         <v>3</v>
@@ -2082,25 +2210,25 @@
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -2109,19 +2237,19 @@
         <v>1</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2135,37 +2263,37 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="3">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="L7" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -2174,19 +2302,19 @@
         <v>2</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="U7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="W7" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2200,10 +2328,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F8" s="3">
         <v>3</v>
@@ -2212,25 +2340,25 @@
         <v>3</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -2239,19 +2367,19 @@
         <v>1</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2265,37 +2393,37 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="L9" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -2304,19 +2432,19 @@
         <v>2</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2330,10 +2458,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -2342,25 +2470,25 @@
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K10" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -2369,19 +2497,19 @@
         <v>2</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2395,37 +2523,37 @@
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="3">
-        <v>3</v>
-      </c>
-      <c r="G11" s="3">
-        <v>3</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="L11" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -2434,19 +2562,19 @@
         <v>3</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W11" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2460,10 +2588,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F12" s="3">
         <v>3</v>
@@ -2472,25 +2600,25 @@
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K12" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -2499,19 +2627,19 @@
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2525,10 +2653,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F13" s="3">
         <v>3</v>
@@ -2537,25 +2665,25 @@
         <v>3</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -2564,19 +2692,19 @@
         <v>3</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2590,10 +2718,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F14" s="3">
         <v>4</v>
@@ -2602,25 +2730,25 @@
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -2629,19 +2757,19 @@
         <v>2</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="U14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="W14" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2655,10 +2783,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
@@ -2667,25 +2795,25 @@
         <v>2</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -2694,19 +2822,19 @@
         <v>1</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="V15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W15" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2720,10 +2848,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F16" s="3">
         <v>3</v>
@@ -2732,25 +2860,25 @@
         <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -2759,19 +2887,19 @@
         <v>3</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2785,10 +2913,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F17" s="3">
         <v>3</v>
@@ -2797,25 +2925,25 @@
         <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -2824,19 +2952,19 @@
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2850,10 +2978,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
@@ -2862,25 +2990,25 @@
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K18" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -2889,19 +3017,19 @@
         <v>2</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2915,10 +3043,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F19" s="3">
         <v>3</v>
@@ -2927,25 +3055,25 @@
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -2954,19 +3082,19 @@
         <v>3</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W19" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2980,10 +3108,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
@@ -2992,25 +3120,25 @@
         <v>2</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K20" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -3019,19 +3147,19 @@
         <v>2</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3045,10 +3173,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F21" s="3">
         <v>3</v>
@@ -3057,25 +3185,25 @@
         <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -3084,19 +3212,19 @@
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="W21" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3110,10 +3238,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F22" s="3">
         <v>3</v>
@@ -3122,25 +3250,25 @@
         <v>3</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -3149,19 +3277,19 @@
         <v>2</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W22" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3175,10 +3303,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F23" s="3">
         <v>3</v>
@@ -3187,25 +3315,25 @@
         <v>3</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3214,19 +3342,19 @@
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3240,10 +3368,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F24" s="3">
         <v>4</v>
@@ -3252,25 +3380,25 @@
         <v>4</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -3279,19 +3407,19 @@
         <v>4</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3305,10 +3433,10 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F25" s="3">
         <v>3</v>
@@ -3317,25 +3445,25 @@
         <v>3</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K25" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -3344,19 +3472,19 @@
         <v>3</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3370,10 +3498,10 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F26" s="3">
         <v>3</v>
@@ -3382,25 +3510,25 @@
         <v>3</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K26" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -3409,19 +3537,19 @@
         <v>2</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="W26" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3435,10 +3563,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F27" s="3">
         <v>3</v>
@@ -3447,25 +3575,25 @@
         <v>2</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K27" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -3474,19 +3602,19 @@
         <v>1</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W27" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3500,37 +3628,37 @@
         <v>4</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4</v>
+      </c>
+      <c r="G28" s="3">
+        <v>4</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="3">
-        <v>4</v>
-      </c>
-      <c r="G28" s="3">
-        <v>4</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="L28" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -3539,19 +3667,19 @@
         <v>2</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="U28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="V28" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="W28" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3565,37 +3693,37 @@
         <v>4</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="3">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="L29" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3604,19 +3732,19 @@
         <v>4</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3630,10 +3758,10 @@
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F30" s="3">
         <v>3</v>
@@ -3642,25 +3770,25 @@
         <v>3</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K30" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -3669,19 +3797,19 @@
         <v>3</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3695,10 +3823,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F31" s="3">
         <v>2</v>
@@ -3707,25 +3835,25 @@
         <v>2</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -3734,19 +3862,19 @@
         <v>1</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3760,10 +3888,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F32" s="3">
         <v>3</v>
@@ -3772,25 +3900,25 @@
         <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K32" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -3799,19 +3927,19 @@
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W32" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3825,10 +3953,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F33" s="3">
         <v>3</v>
@@ -3837,25 +3965,25 @@
         <v>3</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -3864,19 +3992,19 @@
         <v>2</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W33" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3890,10 +4018,10 @@
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F34" s="3">
         <v>3</v>
@@ -3902,25 +4030,25 @@
         <v>3</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -3929,19 +4057,19 @@
         <v>3</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W34" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W34" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3955,37 +4083,37 @@
         <v>4</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="3">
-        <v>4</v>
-      </c>
-      <c r="G35" s="3">
-        <v>4</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="L35" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -3994,19 +4122,19 @@
         <v>2</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4020,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F36" s="3">
         <v>2</v>
@@ -4032,25 +4160,25 @@
         <v>2</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -4059,19 +4187,19 @@
         <v>2</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W36" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W36" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4085,10 +4213,10 @@
         <v>4</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F37" s="3">
         <v>3</v>
@@ -4097,25 +4225,25 @@
         <v>2</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -4124,19 +4252,19 @@
         <v>2</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="U37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="V37" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="W37" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4150,10 +4278,10 @@
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F38" s="3">
         <v>3</v>
@@ -4162,25 +4290,25 @@
         <v>3</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -4189,19 +4317,19 @@
         <v>3</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W38" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W38" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4215,10 +4343,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F39" s="3">
         <v>3</v>
@@ -4227,25 +4355,25 @@
         <v>3</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
@@ -4254,19 +4382,19 @@
         <v>3</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4280,37 +4408,37 @@
         <v>4</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="3">
+        <v>4</v>
+      </c>
+      <c r="G40" s="3">
+        <v>4</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="3">
-        <v>4</v>
-      </c>
-      <c r="G40" s="3">
-        <v>4</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="L40" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
@@ -4319,19 +4447,19 @@
         <v>4</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4345,10 +4473,10 @@
         <v>4</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F41" s="3">
         <v>4</v>
@@ -4357,25 +4485,25 @@
         <v>4</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
@@ -4384,19 +4512,19 @@
         <v>4</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4410,10 +4538,10 @@
         <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F42" s="3">
         <v>4</v>
@@ -4422,25 +4550,25 @@
         <v>3</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
@@ -4449,19 +4577,19 @@
         <v>3</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4475,10 +4603,10 @@
         <v>4</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F43" s="3">
         <v>4</v>
@@ -4487,25 +4615,25 @@
         <v>3</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K43" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -4514,19 +4642,19 @@
         <v>2</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4540,10 +4668,10 @@
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F44" s="3">
         <v>4</v>
@@ -4552,25 +4680,25 @@
         <v>4</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K44" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
@@ -4579,19 +4707,19 @@
         <v>3</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4605,10 +4733,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F45" s="3">
         <v>2</v>
@@ -4617,25 +4745,25 @@
         <v>1</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K45" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
@@ -4644,19 +4772,19 @@
         <v>1</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4670,10 +4798,10 @@
         <v>3</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F46" s="3">
         <v>3</v>
@@ -4682,25 +4810,25 @@
         <v>3</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
@@ -4709,19 +4837,19 @@
         <v>3</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4735,10 +4863,10 @@
         <v>3</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F47" s="3">
         <v>3</v>
@@ -4747,25 +4875,25 @@
         <v>3</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
@@ -4774,19 +4902,19 @@
         <v>3</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4800,10 +4928,10 @@
         <v>3</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F48" s="3">
         <v>3</v>
@@ -4812,25 +4940,25 @@
         <v>2</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
@@ -4839,19 +4967,19 @@
         <v>3</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4865,37 +4993,37 @@
         <v>3</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F49" s="3">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="L49" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
@@ -4904,19 +5032,19 @@
         <v>3</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4930,37 +5058,37 @@
         <v>3</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="3">
+        <v>3</v>
+      </c>
+      <c r="G50" s="3">
+        <v>3</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F50" s="3">
-        <v>3</v>
-      </c>
-      <c r="G50" s="3">
-        <v>3</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="L50" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -4969,19 +5097,19 @@
         <v>2</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W50" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="W50" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4995,37 +5123,37 @@
         <v>3</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E51" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="3">
+        <v>3</v>
+      </c>
+      <c r="G51" s="3">
+        <v>3</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F51" s="3">
-        <v>3</v>
-      </c>
-      <c r="G51" s="3">
-        <v>3</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="L51" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
@@ -5034,19 +5162,19 @@
         <v>2</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5060,10 +5188,10 @@
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F52" s="3">
         <v>1</v>
@@ -5072,25 +5200,25 @@
         <v>3</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K52" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
@@ -5099,19 +5227,19 @@
         <v>2</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W52" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5125,10 +5253,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F53" s="3">
         <v>1</v>
@@ -5144,31 +5272,31 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="R53" s="3">
         <v>1</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W53" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W53" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5182,10 +5310,10 @@
         <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F54" s="3">
         <v>2</v>
@@ -5201,31 +5329,31 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="R54" s="3">
         <v>1</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W54" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W54" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5239,10 +5367,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F55" s="3">
         <v>2</v>
@@ -5258,31 +5386,31 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="R55" s="3">
         <v>2</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W55" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W55" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5296,10 +5424,10 @@
         <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F56" s="3">
         <v>3</v>
@@ -5315,31 +5443,31 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="R56" s="3">
         <v>3</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5353,10 +5481,10 @@
         <v>3</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F57" s="3">
         <v>1</v>
@@ -5372,31 +5500,31 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="R57" s="3">
         <v>1</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5410,10 +5538,10 @@
         <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F58" s="3">
         <v>3</v>
@@ -5429,31 +5557,31 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="R58" s="3">
         <v>2</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W58" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5467,10 +5595,10 @@
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F59" s="3">
         <v>3</v>
@@ -5486,31 +5614,31 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="R59" s="3">
         <v>2</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W59" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5524,10 +5652,10 @@
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F60" s="3">
         <v>3</v>
@@ -5543,31 +5671,31 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="R60" s="3">
         <v>2</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U60" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5581,10 +5709,10 @@
         <v>3</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F61" s="3">
         <v>2</v>
@@ -5600,31 +5728,31 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R61" s="3">
         <v>1</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5638,10 +5766,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F62" s="3">
         <v>2</v>
@@ -5657,31 +5785,31 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="R62" s="3">
         <v>3</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5695,10 +5823,10 @@
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F63" s="3">
         <v>2</v>
@@ -5714,31 +5842,31 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="R63" s="3">
         <v>1</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5752,10 +5880,10 @@
         <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F64" s="3">
         <v>1</v>
@@ -5771,31 +5899,31 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="R64" s="3">
         <v>1</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V64" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V64" s="3" t="s">
+      <c r="W64" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W64" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5809,10 +5937,10 @@
         <v>3</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F65" s="3">
         <v>2</v>
@@ -5828,31 +5956,31 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="R65" s="3">
         <v>1</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W65" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="W65" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5866,10 +5994,10 @@
         <v>2</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F66" s="3">
         <v>3</v>
@@ -5885,31 +6013,31 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="R66" s="3">
         <v>3</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5923,10 +6051,10 @@
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F67" s="3">
         <v>2</v>
@@ -5942,31 +6070,31 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="R67" s="3">
         <v>1</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U67" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5980,10 +6108,10 @@
         <v>2</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F68" s="3">
         <v>3</v>
@@ -5999,31 +6127,31 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="R68" s="3">
         <v>2</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U68" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6037,10 +6165,10 @@
         <v>2</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F69" s="3">
         <v>3</v>
@@ -6056,31 +6184,31 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R69" s="3">
         <v>2</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T69" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U69" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V69" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6094,10 +6222,10 @@
         <v>1</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F70" s="3">
         <v>1</v>
@@ -6113,31 +6241,31 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="R70" s="3">
         <v>2</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U70" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6151,10 +6279,10 @@
         <v>2</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F71" s="3">
         <v>3</v>
@@ -6170,31 +6298,31 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="R71" s="3">
         <v>1</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U71" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6208,10 +6336,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F72" s="3">
         <v>2</v>
@@ -6227,31 +6355,31 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="R72" s="3">
         <v>3</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T72" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U72" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W72" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6265,10 +6393,10 @@
         <v>3</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F73" s="3">
         <v>2</v>
@@ -6284,31 +6412,31 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="R73" s="3">
         <v>2</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T73" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U73" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6322,10 +6450,10 @@
         <v>3</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F74" s="3">
         <v>3</v>
@@ -6341,31 +6469,31 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="R74" s="3">
         <v>2</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W74" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W74" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6379,10 +6507,10 @@
         <v>2</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F75" s="3">
         <v>3</v>
@@ -6398,31 +6526,31 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="R75" s="3">
         <v>2</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T75" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U75" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6436,10 +6564,10 @@
         <v>2</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F76" s="3">
         <v>2</v>
@@ -6455,31 +6583,31 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="R76" s="3">
         <v>3</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V76" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6493,10 +6621,10 @@
         <v>2</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F77" s="3">
         <v>3</v>
@@ -6512,31 +6640,31 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="R77" s="3">
         <v>2</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T77" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U77" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6550,10 +6678,10 @@
         <v>2</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F78" s="3">
         <v>3</v>
@@ -6569,31 +6697,31 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="R78" s="3">
         <v>1</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6607,10 +6735,10 @@
         <v>2</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F79" s="3">
         <v>3</v>
@@ -6626,31 +6754,31 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="R79" s="3">
         <v>2</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U79" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="V79" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6664,10 +6792,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F80" s="3">
         <v>3</v>
@@ -6683,31 +6811,31 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="R80" s="3">
         <v>2</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U80" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W80" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W80" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6721,10 +6849,10 @@
         <v>2</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F81" s="3">
         <v>2</v>
@@ -6740,31 +6868,31 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R81" s="3">
         <v>1</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T81" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U81" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W81" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="W81" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6778,10 +6906,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F82" s="3">
         <v>4</v>
@@ -6797,31 +6925,31 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="R82" s="3">
         <v>1</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="U82" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="W82" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6835,10 +6963,10 @@
         <v>1</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F83" s="3">
         <v>1</v>
@@ -6854,31 +6982,31 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="R83" s="3">
         <v>2</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T83" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U83" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V83" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W83" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6892,10 +7020,10 @@
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F84" s="3">
         <v>3</v>
@@ -6911,31 +7039,31 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P84" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="R84" s="3">
         <v>2</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T84" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U84" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V84" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W84" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="W84" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6949,10 +7077,10 @@
         <v>2</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F85" s="3">
         <v>2</v>
@@ -6968,31 +7096,31 @@
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="R85" s="3">
         <v>1</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T85" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U85" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V85" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W85" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="W85" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7006,10 +7134,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F86" s="3">
         <v>3</v>
@@ -7025,31 +7153,31 @@
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="R86" s="3">
         <v>2</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U86" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V86" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="W86" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7063,10 +7191,10 @@
         <v>2</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F87" s="3">
         <v>2</v>
@@ -7082,31 +7210,31 @@
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="R87" s="3">
         <v>3</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T87" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U87" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V87" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7120,10 +7248,10 @@
         <v>2</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F88" s="3">
         <v>2</v>
@@ -7139,31 +7267,31 @@
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="R88" s="3">
         <v>3</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U88" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V88" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W88" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="W88" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7177,10 +7305,10 @@
         <v>3</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F89" s="3">
         <v>3</v>
@@ -7196,31 +7324,31 @@
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="R89" s="3">
         <v>2</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T89" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="U89" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V89" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W89" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7234,10 +7362,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F90" s="3">
         <v>2</v>
@@ -7253,31 +7381,31 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="R90" s="3">
         <v>3</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T90" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U90" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V90" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W90" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7291,10 +7419,10 @@
         <v>2</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F91" s="3">
         <v>2</v>
@@ -7310,31 +7438,31 @@
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R91" s="3">
         <v>2</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T91" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U91" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W91" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7348,10 +7476,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F92" s="3">
         <v>3</v>
@@ -7367,31 +7495,31 @@
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="R92" s="3">
         <v>1</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T92" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U92" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V92" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W92" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="W92" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7405,10 +7533,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F93" s="3">
         <v>3</v>
@@ -7424,31 +7552,31 @@
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P93" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="R93" s="3">
         <v>3</v>
       </c>
       <c r="S93" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T93" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U93" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V93" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W93" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7462,10 +7590,10 @@
         <v>2</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F94" s="3">
         <v>2</v>
@@ -7481,31 +7609,31 @@
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R94" s="3">
         <v>1</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U94" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V94" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W94" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7519,10 +7647,10 @@
         <v>2</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F95" s="3">
         <v>2</v>
@@ -7538,31 +7666,31 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P95" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="R95" s="3">
         <v>2</v>
       </c>
       <c r="S95" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T95" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U95" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V95" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W95" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W95" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7576,10 +7704,10 @@
         <v>1</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F96" s="3">
         <v>3</v>
@@ -7595,31 +7723,31 @@
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="R96" s="3">
         <v>1</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T96" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U96" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V96" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W96" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="W96" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7633,10 +7761,10 @@
         <v>2</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F97" s="3">
         <v>1</v>
@@ -7652,31 +7780,31 @@
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="R97" s="3">
         <v>1</v>
       </c>
       <c r="S97" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T97" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U97" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V97" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W97" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7690,10 +7818,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F98" s="3">
         <v>3</v>
@@ -7709,31 +7837,31 @@
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="R98" s="3">
         <v>2</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T98" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U98" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V98" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W98" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7747,10 +7875,10 @@
         <v>2</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F99" s="3">
         <v>1</v>
@@ -7766,31 +7894,31 @@
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="R99" s="3">
         <v>1</v>
       </c>
       <c r="S99" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T99" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U99" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V99" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W99" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7804,10 +7932,10 @@
         <v>2</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F100" s="3">
         <v>2</v>
@@ -7823,31 +7951,31 @@
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P100" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="R100" s="3">
         <v>1</v>
       </c>
       <c r="S100" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U100" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V100" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W100" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7861,10 +7989,10 @@
         <v>2</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F101" s="3">
         <v>2</v>
@@ -7880,31 +8008,31 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="R101" s="3">
         <v>1</v>
       </c>
       <c r="S101" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T101" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U101" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V101" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W101" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7918,10 +8046,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F102" s="3">
         <v>2</v>
@@ -7937,31 +8065,31 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P102" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="R102" s="3">
         <v>2</v>
       </c>
       <c r="S102" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T102" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U102" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="V102" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W102" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7975,10 +8103,10 @@
         <v>3</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F103" s="3">
         <v>2</v>
@@ -7994,31 +8122,31 @@
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="R103" s="3">
         <v>2</v>
       </c>
       <c r="S103" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T103" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U103" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V103" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W103" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8032,10 +8160,10 @@
         <v>2</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F104" s="3">
         <v>2</v>
@@ -8051,31 +8179,31 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="R104" s="3">
         <v>2</v>
       </c>
       <c r="S104" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T104" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U104" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V104" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W104" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="W104" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8089,10 +8217,10 @@
         <v>2</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F105" s="3">
         <v>2</v>
@@ -8108,31 +8236,31 @@
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="R105" s="3">
         <v>2</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T105" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U105" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W105" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W105" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8146,10 +8274,10 @@
         <v>2</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F106" s="3">
         <v>2</v>
@@ -8165,31 +8293,31 @@
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="R106" s="3">
         <v>2</v>
       </c>
       <c r="S106" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T106" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U106" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V106" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W106" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8203,10 +8331,10 @@
         <v>3</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F107" s="3">
         <v>2</v>
@@ -8222,31 +8350,31 @@
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
       <c r="O107" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="R107" s="3">
         <v>2</v>
       </c>
       <c r="S107" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T107" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U107" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V107" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W107" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W107" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8260,10 +8388,10 @@
         <v>3</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
@@ -8279,31 +8407,31 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P108" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="R108" s="3">
         <v>1</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T108" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U108" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W108" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W108" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8317,10 +8445,10 @@
         <v>2</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F109" s="3">
         <v>2</v>
@@ -8336,31 +8464,31 @@
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
       <c r="O109" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P109" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="R109" s="3">
         <v>2</v>
       </c>
       <c r="S109" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T109" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U109" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V109" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W109" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8374,10 +8502,10 @@
         <v>1</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -8393,31 +8521,31 @@
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
       <c r="O110" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="R110" s="3">
         <v>1</v>
       </c>
       <c r="S110" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T110" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U110" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V110" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="W110" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8431,10 +8559,10 @@
         <v>2</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F111" s="3">
         <v>1</v>
@@ -8450,31 +8578,31 @@
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P111" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="R111" s="3">
         <v>1</v>
       </c>
       <c r="S111" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T111" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="U111" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="V111" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W111" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="W111" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8488,10 +8616,10 @@
         <v>2</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F112" s="3">
         <v>2</v>
@@ -8507,31 +8635,31 @@
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
       <c r="O112" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P112" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="R112" s="3">
         <v>2</v>
       </c>
       <c r="S112" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T112" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V112" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W112" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8545,10 +8673,10 @@
         <v>2</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F113" s="3">
         <v>3</v>
@@ -8564,31 +8692,31 @@
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q113" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="R113" s="3">
         <v>2</v>
       </c>
       <c r="S113" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T113" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U113" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V113" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W113" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="W113" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8602,10 +8730,10 @@
         <v>2</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F114" s="3">
         <v>3</v>
@@ -8621,31 +8749,31 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P114" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="R114" s="3">
         <v>2</v>
       </c>
       <c r="S114" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T114" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U114" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V114" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W114" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8659,10 +8787,10 @@
         <v>2</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F115" s="3">
         <v>3</v>
@@ -8678,31 +8806,31 @@
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P115" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="R115" s="3">
         <v>3</v>
       </c>
       <c r="S115" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T115" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U115" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V115" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W115" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W115" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8716,10 +8844,10 @@
         <v>2</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F116" s="3">
         <v>2</v>
@@ -8735,31 +8863,31 @@
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P116" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="R116" s="3">
         <v>3</v>
       </c>
       <c r="S116" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T116" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U116" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V116" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W116" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8773,10 +8901,10 @@
         <v>3</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F117" s="3">
         <v>1</v>
@@ -8792,31 +8920,31 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P117" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q117" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="R117" s="3">
         <v>2</v>
       </c>
       <c r="S117" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T117" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U117" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V117" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V117" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="W117" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8830,10 +8958,10 @@
         <v>3</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F118" s="3">
         <v>3</v>
@@ -8849,31 +8977,31 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P118" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q118" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="R118" s="3">
         <v>2</v>
       </c>
       <c r="S118" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T118" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U118" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V118" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W118" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8887,10 +9015,10 @@
         <v>2</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F119" s="3">
         <v>2</v>
@@ -8906,31 +9034,31 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P119" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="R119" s="3">
         <v>2</v>
       </c>
       <c r="S119" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T119" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U119" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V119" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W119" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W119" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8944,10 +9072,10 @@
         <v>1</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F120" s="3">
         <v>2</v>
@@ -8963,31 +9091,31 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P120" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="R120" s="3">
         <v>2</v>
       </c>
       <c r="S120" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T120" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U120" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V120" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W120" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9001,10 +9129,10 @@
         <v>2</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F121" s="3">
         <v>3</v>
@@ -9020,31 +9148,31 @@
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P121" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="R121" s="3">
         <v>2</v>
       </c>
       <c r="S121" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T121" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U121" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V121" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W121" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9058,10 +9186,10 @@
         <v>1</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9077,31 +9205,31 @@
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P122" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="R122" s="3">
         <v>1</v>
       </c>
       <c r="S122" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T122" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U122" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V122" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W122" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9115,10 +9243,10 @@
         <v>1</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F123" s="3">
         <v>2</v>
@@ -9134,31 +9262,31 @@
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P123" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="R123" s="3">
         <v>1</v>
       </c>
       <c r="S123" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T123" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U123" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V123" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W123" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="W123" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9172,10 +9300,10 @@
         <v>2</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F124" s="3">
         <v>2</v>
@@ -9191,31 +9319,31 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P124" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q124" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="R124" s="3">
         <v>1</v>
       </c>
       <c r="S124" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T124" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U124" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V124" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W124" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9229,10 +9357,10 @@
         <v>3</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F125" s="3">
         <v>2</v>
@@ -9248,31 +9376,31 @@
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P125" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q125" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="R125" s="3">
         <v>1</v>
       </c>
       <c r="S125" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T125" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U125" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="V125" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W125" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9286,10 +9414,10 @@
         <v>3</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F126" s="3">
         <v>2</v>
@@ -9305,31 +9433,31 @@
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P126" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q126" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="R126" s="3">
         <v>2</v>
       </c>
       <c r="S126" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T126" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U126" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W126" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W126" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9343,10 +9471,10 @@
         <v>2</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F127" s="3">
         <v>2</v>
@@ -9362,31 +9490,31 @@
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P127" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q127" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="R127" s="3">
         <v>1</v>
       </c>
       <c r="S127" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T127" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U127" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V127" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W127" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W127" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9400,10 +9528,10 @@
         <v>1</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9419,31 +9547,31 @@
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P128" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q128" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="R128" s="3">
         <v>1</v>
       </c>
       <c r="S128" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T128" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U128" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V128" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W128" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9457,10 +9585,10 @@
         <v>2</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F129" s="3">
         <v>2</v>
@@ -9476,36 +9604,37 @@
       <c r="M129" s="9"/>
       <c r="N129" s="9"/>
       <c r="O129" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q129" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="R129" s="3">
         <v>1</v>
       </c>
       <c r="S129" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T129" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U129" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V129" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W129" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="W129" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Green@Community_DataAnalysis/GCAP3226 G@C Survey Responses_cleaned data.xlsx
+++ b/Green@Community_DataAnalysis/GCAP3226 G@C Survey Responses_cleaned data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/Green-Community_DataAnalysis/Green@Community_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F210131C-EBF1-2D47-8CCB-EB60375D7696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D1B78F-BA6B-864E-AA62-0D68C48BB552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CleanedSurveyResponses" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="194">
   <si>
     <t>Timestamp</t>
   </si>
@@ -452,9 +452,6 @@
     <t>Reduce waste of resources</t>
   </si>
   <si>
-    <t>Have confidence</t>
-  </si>
-  <si>
     <t>Too far/inconvenient location</t>
   </si>
   <si>
@@ -615,9 +612,6 @@
   </si>
   <si>
     <t>Close to home, Accepts a wide variety of recyclables</t>
-  </si>
-  <si>
-    <t>Close to work/school, Short queues/less crowds, Complete barrier-free facilities</t>
   </si>
   <si>
     <t>Close to home, Close to work/school</t>
@@ -830,6 +824,54 @@
       <t xml:space="preserve">
 After reading the above, do you think Green@Community's overall effectiveness is satisfactory?</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, rarely (less than once per month)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, occasionally (1–3 times per month)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, regularly (at least once per week or more)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>To earn rewards, Convenience place</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convenience place, To earn rewards, Reduce waste of resources</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Family/friends encourage it</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comfortable facility environment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have confidence</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>No, I use different facilities depending on location/time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mostly the same facility, but occasionally others</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close to home</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close to work/school, Short queues/less crowds, Complete barrier-free facilities</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1824,8 +1866,8 @@
   <dimension ref="A1:W129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScale="50" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W2" sqref="W2:W129"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q79" sqref="Q79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1876,10 +1918,10 @@
         <v>1</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>2</v>
@@ -1894,22 +1936,22 @@
         <v>4</v>
       </c>
       <c r="M1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>181</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>6</v>
@@ -1962,13 +2004,13 @@
         <v>51</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>45</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -2033,7 +2075,7 @@
         <v>45</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -2098,7 +2140,7 @@
         <v>45</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -2157,13 +2199,13 @@
         <v>46</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -2219,7 +2261,7 @@
         <v>53</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>108</v>
@@ -2228,7 +2270,7 @@
         <v>45</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -2284,7 +2326,7 @@
         <v>56</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>108</v>
@@ -2293,7 +2335,7 @@
         <v>45</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -2358,7 +2400,7 @@
         <v>45</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -2423,7 +2465,7 @@
         <v>45</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -2488,7 +2530,7 @@
         <v>45</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -2553,7 +2595,7 @@
         <v>45</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -2615,10 +2657,10 @@
         <v>97</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -2683,7 +2725,7 @@
         <v>48</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -2748,7 +2790,7 @@
         <v>47</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -2813,7 +2855,7 @@
         <v>47</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -2878,7 +2920,7 @@
         <v>47</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -2943,7 +2985,7 @@
         <v>45</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -3005,10 +3047,10 @@
         <v>97</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -3064,7 +3106,7 @@
         <v>52</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>102</v>
@@ -3073,7 +3115,7 @@
         <v>45</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -3138,7 +3180,7 @@
         <v>47</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -3203,7 +3245,7 @@
         <v>47</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -3268,7 +3310,7 @@
         <v>45</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -3333,7 +3375,7 @@
         <v>45</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3398,7 +3440,7 @@
         <v>45</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -3463,7 +3505,7 @@
         <v>45</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -3528,7 +3570,7 @@
         <v>45</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -3593,7 +3635,7 @@
         <v>47</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -3658,7 +3700,7 @@
         <v>45</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -3717,13 +3759,13 @@
         <v>51</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3788,7 +3830,7 @@
         <v>45</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -3853,7 +3895,7 @@
         <v>45</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -3918,7 +3960,7 @@
         <v>47</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -3983,7 +4025,7 @@
         <v>45</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -4048,7 +4090,7 @@
         <v>47</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -4113,7 +4155,7 @@
         <v>47</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -4178,7 +4220,7 @@
         <v>47</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -4243,7 +4285,7 @@
         <v>45</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -4308,7 +4350,7 @@
         <v>47</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -4373,7 +4415,7 @@
         <v>47</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
@@ -4438,7 +4480,7 @@
         <v>45</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
@@ -4503,7 +4545,7 @@
         <v>48</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
@@ -4568,7 +4610,7 @@
         <v>45</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
@@ -4633,7 +4675,7 @@
         <v>45</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -4698,7 +4740,7 @@
         <v>47</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
@@ -4757,13 +4799,13 @@
         <v>46</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
@@ -4828,7 +4870,7 @@
         <v>48</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
@@ -4893,7 +4935,7 @@
         <v>45</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
@@ -4958,7 +5000,7 @@
         <v>45</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
@@ -5017,13 +5059,13 @@
         <v>51</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
@@ -5088,7 +5130,7 @@
         <v>45</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -5153,7 +5195,7 @@
         <v>45</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
@@ -5218,7 +5260,7 @@
         <v>48</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
@@ -5278,7 +5320,7 @@
         <v>39</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R53" s="3">
         <v>1</v>
@@ -5335,7 +5377,7 @@
         <v>39</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R54" s="3">
         <v>1</v>
@@ -5392,7 +5434,7 @@
         <v>42</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R55" s="3">
         <v>2</v>
@@ -5449,7 +5491,7 @@
         <v>39</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R56" s="3">
         <v>3</v>
@@ -5506,7 +5548,7 @@
         <v>40</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R57" s="3">
         <v>1</v>
@@ -5563,7 +5605,7 @@
         <v>42</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R58" s="3">
         <v>2</v>
@@ -5620,7 +5662,7 @@
         <v>39</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R59" s="3">
         <v>2</v>
@@ -5677,7 +5719,7 @@
         <v>39</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R60" s="3">
         <v>2</v>
@@ -5734,7 +5776,7 @@
         <v>43</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R61" s="3">
         <v>1</v>
@@ -5791,7 +5833,7 @@
         <v>40</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R62" s="3">
         <v>3</v>
@@ -5848,7 +5890,7 @@
         <v>39</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R63" s="3">
         <v>1</v>
@@ -5905,7 +5947,7 @@
         <v>41</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R64" s="3">
         <v>1</v>
@@ -5962,7 +6004,7 @@
         <v>42</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R65" s="3">
         <v>1</v>
@@ -6019,7 +6061,7 @@
         <v>39</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R66" s="3">
         <v>3</v>
@@ -6076,7 +6118,7 @@
         <v>43</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R67" s="3">
         <v>1</v>
@@ -6133,7 +6175,7 @@
         <v>44</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R68" s="3">
         <v>2</v>
@@ -6190,7 +6232,7 @@
         <v>44</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R69" s="3">
         <v>2</v>
@@ -6247,7 +6289,7 @@
         <v>40</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R70" s="3">
         <v>2</v>
@@ -6304,7 +6346,7 @@
         <v>39</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R71" s="3">
         <v>1</v>
@@ -6361,7 +6403,7 @@
         <v>43</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R72" s="3">
         <v>3</v>
@@ -6418,7 +6460,7 @@
         <v>43</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R73" s="3">
         <v>2</v>
@@ -6475,7 +6517,7 @@
         <v>43</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R74" s="3">
         <v>2</v>
@@ -6532,7 +6574,7 @@
         <v>41</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R75" s="3">
         <v>2</v>
@@ -6589,7 +6631,7 @@
         <v>43</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R76" s="3">
         <v>3</v>
@@ -6646,7 +6688,7 @@
         <v>39</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R77" s="3">
         <v>2</v>
@@ -6703,7 +6745,7 @@
         <v>42</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R78" s="3">
         <v>1</v>
@@ -6760,7 +6802,7 @@
         <v>40</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R79" s="3">
         <v>2</v>
@@ -6817,7 +6859,7 @@
         <v>39</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R80" s="3">
         <v>2</v>
@@ -6874,7 +6916,7 @@
         <v>40</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R81" s="3">
         <v>1</v>
@@ -6931,7 +6973,7 @@
         <v>39</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R82" s="3">
         <v>1</v>
@@ -6988,7 +7030,7 @@
         <v>40</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R83" s="3">
         <v>2</v>
@@ -7045,7 +7087,7 @@
         <v>41</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R84" s="3">
         <v>2</v>
@@ -7102,7 +7144,7 @@
         <v>39</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R85" s="3">
         <v>1</v>
@@ -7159,7 +7201,7 @@
         <v>41</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R86" s="3">
         <v>2</v>
@@ -7216,7 +7258,7 @@
         <v>39</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R87" s="3">
         <v>3</v>
@@ -7273,7 +7315,7 @@
         <v>43</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R88" s="3">
         <v>3</v>
@@ -7330,7 +7372,7 @@
         <v>40</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R89" s="3">
         <v>2</v>
@@ -7387,7 +7429,7 @@
         <v>43</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R90" s="3">
         <v>3</v>
@@ -7444,7 +7486,7 @@
         <v>39</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R91" s="3">
         <v>2</v>
@@ -7501,7 +7543,7 @@
         <v>40</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R92" s="3">
         <v>1</v>
@@ -7558,7 +7600,7 @@
         <v>44</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R93" s="3">
         <v>3</v>
@@ -7615,7 +7657,7 @@
         <v>40</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R94" s="3">
         <v>1</v>
@@ -7672,7 +7714,7 @@
         <v>42</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R95" s="3">
         <v>2</v>
@@ -7729,7 +7771,7 @@
         <v>39</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R96" s="3">
         <v>1</v>
@@ -7786,7 +7828,7 @@
         <v>43</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R97" s="3">
         <v>1</v>
@@ -7843,7 +7885,7 @@
         <v>43</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R98" s="3">
         <v>2</v>
@@ -7900,7 +7942,7 @@
         <v>43</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R99" s="3">
         <v>1</v>
@@ -7957,7 +7999,7 @@
         <v>40</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R100" s="3">
         <v>1</v>
@@ -8014,7 +8056,7 @@
         <v>39</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R101" s="3">
         <v>1</v>
@@ -8071,7 +8113,7 @@
         <v>42</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R102" s="3">
         <v>2</v>
@@ -8128,7 +8170,7 @@
         <v>40</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R103" s="3">
         <v>2</v>
@@ -8185,7 +8227,7 @@
         <v>40</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R104" s="3">
         <v>2</v>
@@ -8242,7 +8284,7 @@
         <v>43</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R105" s="3">
         <v>2</v>
@@ -8299,7 +8341,7 @@
         <v>40</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R106" s="3">
         <v>2</v>
@@ -8356,7 +8398,7 @@
         <v>40</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R107" s="3">
         <v>2</v>
@@ -8413,7 +8455,7 @@
         <v>40</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R108" s="3">
         <v>1</v>
@@ -8470,7 +8512,7 @@
         <v>39</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R109" s="3">
         <v>2</v>
@@ -8527,7 +8569,7 @@
         <v>43</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R110" s="3">
         <v>1</v>
@@ -8584,7 +8626,7 @@
         <v>43</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R111" s="3">
         <v>1</v>
@@ -8641,7 +8683,7 @@
         <v>42</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R112" s="3">
         <v>2</v>
@@ -8698,7 +8740,7 @@
         <v>43</v>
       </c>
       <c r="Q113" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R113" s="3">
         <v>2</v>
@@ -8755,7 +8797,7 @@
         <v>42</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R114" s="3">
         <v>2</v>
@@ -8812,7 +8854,7 @@
         <v>43</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R115" s="3">
         <v>3</v>
@@ -8869,7 +8911,7 @@
         <v>40</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R116" s="3">
         <v>3</v>
@@ -8926,7 +8968,7 @@
         <v>43</v>
       </c>
       <c r="Q117" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R117" s="3">
         <v>2</v>
@@ -8983,7 +9025,7 @@
         <v>41</v>
       </c>
       <c r="Q118" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R118" s="3">
         <v>2</v>
@@ -9040,7 +9082,7 @@
         <v>42</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R119" s="3">
         <v>2</v>
@@ -9097,7 +9139,7 @@
         <v>40</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R120" s="3">
         <v>2</v>
@@ -9154,7 +9196,7 @@
         <v>43</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R121" s="3">
         <v>2</v>
@@ -9211,7 +9253,7 @@
         <v>39</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R122" s="3">
         <v>1</v>
@@ -9268,7 +9310,7 @@
         <v>40</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R123" s="3">
         <v>1</v>
@@ -9325,7 +9367,7 @@
         <v>40</v>
       </c>
       <c r="Q124" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R124" s="3">
         <v>1</v>
@@ -9382,7 +9424,7 @@
         <v>39</v>
       </c>
       <c r="Q125" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R125" s="3">
         <v>1</v>
@@ -9439,7 +9481,7 @@
         <v>42</v>
       </c>
       <c r="Q126" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R126" s="3">
         <v>2</v>
@@ -9496,7 +9538,7 @@
         <v>39</v>
       </c>
       <c r="Q127" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R127" s="3">
         <v>1</v>
@@ -9553,7 +9595,7 @@
         <v>39</v>
       </c>
       <c r="Q128" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R128" s="3">
         <v>1</v>
@@ -9610,7 +9652,7 @@
         <v>40</v>
       </c>
       <c r="Q129" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R129" s="3">
         <v>1</v>

--- a/Green@Community_DataAnalysis/GCAP3226 G@C Survey Responses_cleaned data.xlsx
+++ b/Green@Community_DataAnalysis/GCAP3226 G@C Survey Responses_cleaned data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/Green-Community_DataAnalysis/Green@Community_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D1B78F-BA6B-864E-AA62-0D68C48BB552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9539176A-6762-CE49-BBC1-CCB10F070E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="195">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,10 +73,6 @@
 Have you registered for the GREEN$ (Electronic) Participation Incentive Scheme (GREEN$ ePIS)?</t>
   </si>
   <si>
-    <t>在未有「綠在區區」回收網絡前，你是否有回收習慣？
-Before the Green@Community recycling network was introduced, did you have recycling habit?</t>
-  </si>
-  <si>
     <t>為甚麼你會選擇使用「綠在區區」回收設施？
 Why do you choose to use Green@Community recycling facilities?</t>
   </si>
@@ -872,6 +868,34 @@
   </si>
   <si>
     <t>Close to work/school, Short queues/less crowds, Complete barrier-free facilities</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beverage carton, Bubble wrap, Glass bottles, LED light bulb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在未有「綠在區區」回收網絡前，你是否有回收習慣？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Before the Green@Community recycling network was introduced, did you have recycling habit?</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1865,9 +1889,9 @@
   </sheetPr>
   <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="50" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q79" sqref="Q79"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="50" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1903,70 +1927,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -1980,10 +2004,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="8">
         <v>4</v>
@@ -1992,25 +2016,25 @@
         <v>4</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -2019,19 +2043,19 @@
         <v>1</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2045,10 +2069,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3">
         <v>4</v>
@@ -2057,25 +2081,25 @@
         <v>4</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -2084,19 +2108,19 @@
         <v>2</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2110,10 +2134,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
@@ -2122,25 +2146,25 @@
         <v>2</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -2149,19 +2173,19 @@
         <v>2</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2175,10 +2199,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -2187,25 +2211,25 @@
         <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -2214,19 +2238,19 @@
         <v>2</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2240,10 +2264,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3">
         <v>3</v>
@@ -2252,25 +2276,25 @@
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -2279,19 +2303,19 @@
         <v>1</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2305,10 +2329,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3">
         <v>3</v>
@@ -2317,25 +2341,25 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -2344,19 +2368,19 @@
         <v>2</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2370,10 +2394,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="3">
         <v>3</v>
@@ -2382,25 +2406,25 @@
         <v>3</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -2409,19 +2433,19 @@
         <v>1</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2435,10 +2459,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="3">
         <v>2</v>
@@ -2447,25 +2471,25 @@
         <v>2</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -2474,19 +2498,19 @@
         <v>2</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2500,10 +2524,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -2512,25 +2536,25 @@
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -2539,19 +2563,19 @@
         <v>2</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2565,10 +2589,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="3">
         <v>3</v>
@@ -2577,25 +2601,25 @@
         <v>3</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -2604,19 +2628,19 @@
         <v>3</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2630,10 +2654,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="3">
         <v>3</v>
@@ -2642,25 +2666,25 @@
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -2669,19 +2693,19 @@
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2695,10 +2719,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="3">
         <v>3</v>
@@ -2707,25 +2731,25 @@
         <v>3</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -2734,19 +2758,19 @@
         <v>3</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2760,10 +2784,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="3">
         <v>4</v>
@@ -2772,25 +2796,25 @@
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -2799,19 +2823,19 @@
         <v>2</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2825,10 +2849,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
@@ -2837,25 +2861,25 @@
         <v>2</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -2864,19 +2888,19 @@
         <v>1</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2890,10 +2914,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="3">
         <v>3</v>
@@ -2902,25 +2926,25 @@
         <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -2929,19 +2953,19 @@
         <v>3</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2955,10 +2979,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="3">
         <v>3</v>
@@ -2967,25 +2991,25 @@
         <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -2994,19 +3018,19 @@
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3020,10 +3044,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
@@ -3032,25 +3056,25 @@
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -3059,19 +3083,19 @@
         <v>2</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3085,10 +3109,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="3">
         <v>3</v>
@@ -3097,25 +3121,25 @@
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -3124,19 +3148,19 @@
         <v>3</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3150,10 +3174,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
@@ -3162,25 +3186,25 @@
         <v>2</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="N20" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -3189,19 +3213,19 @@
         <v>2</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3215,10 +3239,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="3">
         <v>3</v>
@@ -3227,25 +3251,25 @@
         <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -3254,19 +3278,19 @@
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3280,10 +3304,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="3">
         <v>3</v>
@@ -3292,25 +3316,25 @@
         <v>3</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -3319,19 +3343,19 @@
         <v>2</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3345,10 +3369,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="3">
         <v>3</v>
@@ -3357,25 +3381,25 @@
         <v>3</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3384,19 +3408,19 @@
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3410,10 +3434,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="3">
         <v>4</v>
@@ -3422,25 +3446,25 @@
         <v>4</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -3449,19 +3473,19 @@
         <v>4</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3475,10 +3499,10 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="3">
         <v>3</v>
@@ -3487,25 +3511,25 @@
         <v>3</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -3514,19 +3538,19 @@
         <v>3</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3540,10 +3564,10 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" s="3">
         <v>3</v>
@@ -3552,25 +3576,25 @@
         <v>3</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -3579,19 +3603,19 @@
         <v>2</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3605,10 +3629,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="3">
         <v>3</v>
@@ -3617,25 +3641,25 @@
         <v>2</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="N27" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -3644,19 +3668,19 @@
         <v>1</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3670,10 +3694,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="3">
         <v>4</v>
@@ -3682,25 +3706,25 @@
         <v>4</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -3709,19 +3733,19 @@
         <v>2</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3735,10 +3759,10 @@
         <v>4</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="3">
         <v>4</v>
@@ -3747,25 +3771,25 @@
         <v>4</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3774,19 +3798,19 @@
         <v>4</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3800,10 +3824,10 @@
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" s="3">
         <v>3</v>
@@ -3812,25 +3836,25 @@
         <v>3</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -3839,19 +3863,19 @@
         <v>3</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3865,10 +3889,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" s="3">
         <v>2</v>
@@ -3877,25 +3901,25 @@
         <v>2</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -3904,19 +3928,19 @@
         <v>1</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3930,10 +3954,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" s="3">
         <v>3</v>
@@ -3942,25 +3966,25 @@
         <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="N32" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -3969,19 +3993,19 @@
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3995,10 +4019,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" s="3">
         <v>3</v>
@@ -4007,25 +4031,25 @@
         <v>3</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -4034,19 +4058,19 @@
         <v>2</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4060,10 +4084,10 @@
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" s="3">
         <v>3</v>
@@ -4072,25 +4096,25 @@
         <v>3</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="N34" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -4099,19 +4123,19 @@
         <v>3</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4125,10 +4149,10 @@
         <v>4</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" s="3">
         <v>4</v>
@@ -4137,25 +4161,25 @@
         <v>4</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -4164,19 +4188,19 @@
         <v>2</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4190,10 +4214,10 @@
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" s="3">
         <v>2</v>
@@ -4202,25 +4226,25 @@
         <v>2</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -4229,19 +4253,19 @@
         <v>2</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4255,10 +4279,10 @@
         <v>4</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" s="3">
         <v>3</v>
@@ -4267,25 +4291,25 @@
         <v>2</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -4294,19 +4318,19 @@
         <v>2</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4320,10 +4344,10 @@
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" s="3">
         <v>3</v>
@@ -4332,25 +4356,25 @@
         <v>3</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -4359,19 +4383,19 @@
         <v>3</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4385,10 +4409,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" s="3">
         <v>3</v>
@@ -4397,25 +4421,25 @@
         <v>3</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
@@ -4424,19 +4448,19 @@
         <v>3</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4450,10 +4474,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" s="3">
         <v>4</v>
@@ -4462,25 +4486,25 @@
         <v>4</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
@@ -4489,19 +4513,19 @@
         <v>4</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4515,10 +4539,10 @@
         <v>4</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" s="3">
         <v>4</v>
@@ -4527,25 +4551,25 @@
         <v>4</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
@@ -4554,19 +4578,19 @@
         <v>4</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4580,10 +4604,10 @@
         <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" s="3">
         <v>4</v>
@@ -4592,25 +4616,25 @@
         <v>3</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
@@ -4619,19 +4643,19 @@
         <v>3</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4645,10 +4669,10 @@
         <v>4</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" s="3">
         <v>4</v>
@@ -4657,25 +4681,25 @@
         <v>3</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -4684,19 +4708,19 @@
         <v>2</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4710,10 +4734,10 @@
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" s="3">
         <v>4</v>
@@ -4722,25 +4746,25 @@
         <v>4</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="N44" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
@@ -4749,19 +4773,19 @@
         <v>3</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4775,10 +4799,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" s="3">
         <v>2</v>
@@ -4787,25 +4811,25 @@
         <v>1</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
@@ -4814,19 +4838,19 @@
         <v>1</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4840,10 +4864,10 @@
         <v>3</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" s="3">
         <v>3</v>
@@ -4852,25 +4876,25 @@
         <v>3</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
@@ -4879,19 +4903,19 @@
         <v>3</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4905,10 +4929,10 @@
         <v>3</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" s="3">
         <v>3</v>
@@ -4917,25 +4941,25 @@
         <v>3</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
@@ -4944,19 +4968,19 @@
         <v>3</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4970,10 +4994,10 @@
         <v>3</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" s="3">
         <v>3</v>
@@ -4982,25 +5006,25 @@
         <v>2</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
@@ -5009,19 +5033,19 @@
         <v>3</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5035,10 +5059,10 @@
         <v>3</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" s="3">
         <v>3</v>
@@ -5047,25 +5071,25 @@
         <v>4</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
@@ -5074,19 +5098,19 @@
         <v>3</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5100,10 +5124,10 @@
         <v>3</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" s="3">
         <v>3</v>
@@ -5112,25 +5136,25 @@
         <v>3</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -5139,19 +5163,19 @@
         <v>2</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5165,10 +5189,10 @@
         <v>3</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" s="3">
         <v>3</v>
@@ -5177,25 +5201,25 @@
         <v>3</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
@@ -5204,19 +5228,19 @@
         <v>2</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5230,10 +5254,10 @@
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" s="3">
         <v>1</v>
@@ -5242,25 +5266,25 @@
         <v>3</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
@@ -5269,19 +5293,19 @@
         <v>2</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5295,10 +5319,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F53" s="3">
         <v>1</v>
@@ -5314,31 +5338,31 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R53" s="3">
         <v>1</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5352,10 +5376,10 @@
         <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F54" s="3">
         <v>2</v>
@@ -5371,31 +5395,31 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R54" s="3">
         <v>1</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5409,10 +5433,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F55" s="3">
         <v>2</v>
@@ -5428,31 +5452,31 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R55" s="3">
         <v>2</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5466,10 +5490,10 @@
         <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F56" s="3">
         <v>3</v>
@@ -5485,31 +5509,31 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R56" s="3">
         <v>3</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5523,10 +5547,10 @@
         <v>3</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F57" s="3">
         <v>1</v>
@@ -5542,31 +5566,31 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R57" s="3">
         <v>1</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5580,10 +5604,10 @@
         <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F58" s="3">
         <v>3</v>
@@ -5599,31 +5623,31 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R58" s="3">
         <v>2</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5637,10 +5661,10 @@
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F59" s="3">
         <v>3</v>
@@ -5656,31 +5680,31 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R59" s="3">
         <v>2</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5694,10 +5718,10 @@
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F60" s="3">
         <v>3</v>
@@ -5713,31 +5737,31 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R60" s="3">
         <v>2</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U60" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5751,10 +5775,10 @@
         <v>3</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F61" s="3">
         <v>2</v>
@@ -5770,31 +5794,31 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R61" s="3">
         <v>1</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V61" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W61" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="W61" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5808,10 +5832,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F62" s="3">
         <v>2</v>
@@ -5827,31 +5851,31 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R62" s="3">
         <v>3</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5865,10 +5889,10 @@
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F63" s="3">
         <v>2</v>
@@ -5884,31 +5908,31 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R63" s="3">
         <v>1</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5922,10 +5946,10 @@
         <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F64" s="3">
         <v>1</v>
@@ -5941,31 +5965,31 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R64" s="3">
         <v>1</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U64" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5979,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F65" s="3">
         <v>2</v>
@@ -5998,31 +6022,31 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R65" s="3">
         <v>1</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6036,10 +6060,10 @@
         <v>2</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F66" s="3">
         <v>3</v>
@@ -6055,31 +6079,31 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R66" s="3">
         <v>3</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6093,10 +6117,10 @@
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F67" s="3">
         <v>2</v>
@@ -6112,31 +6136,31 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R67" s="3">
         <v>1</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U67" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6150,10 +6174,10 @@
         <v>2</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F68" s="3">
         <v>3</v>
@@ -6169,31 +6193,31 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R68" s="3">
         <v>2</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U68" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6207,10 +6231,10 @@
         <v>2</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F69" s="3">
         <v>3</v>
@@ -6226,31 +6250,31 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R69" s="3">
         <v>2</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T69" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U69" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V69" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6264,10 +6288,10 @@
         <v>1</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F70" s="3">
         <v>1</v>
@@ -6283,31 +6307,31 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R70" s="3">
         <v>2</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U70" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6321,10 +6345,10 @@
         <v>2</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F71" s="3">
         <v>3</v>
@@ -6340,31 +6364,31 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R71" s="3">
         <v>1</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U71" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6378,10 +6402,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F72" s="3">
         <v>2</v>
@@ -6397,31 +6421,31 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R72" s="3">
         <v>3</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T72" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U72" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6435,10 +6459,10 @@
         <v>3</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F73" s="3">
         <v>2</v>
@@ -6454,31 +6478,31 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R73" s="3">
         <v>2</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T73" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U73" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6492,10 +6516,10 @@
         <v>3</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F74" s="3">
         <v>3</v>
@@ -6511,31 +6535,31 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R74" s="3">
         <v>2</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6549,10 +6573,10 @@
         <v>2</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F75" s="3">
         <v>3</v>
@@ -6568,31 +6592,31 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R75" s="3">
         <v>2</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T75" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U75" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6606,10 +6630,10 @@
         <v>2</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F76" s="3">
         <v>2</v>
@@ -6625,31 +6649,31 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R76" s="3">
         <v>3</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V76" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6663,10 +6687,10 @@
         <v>2</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F77" s="3">
         <v>3</v>
@@ -6682,31 +6706,31 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R77" s="3">
         <v>2</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T77" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U77" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6720,10 +6744,10 @@
         <v>2</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F78" s="3">
         <v>3</v>
@@ -6739,31 +6763,31 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R78" s="3">
         <v>1</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6777,10 +6801,10 @@
         <v>2</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F79" s="3">
         <v>3</v>
@@ -6796,31 +6820,31 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R79" s="3">
         <v>2</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U79" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V79" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6834,10 +6858,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F80" s="3">
         <v>3</v>
@@ -6853,31 +6877,31 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R80" s="3">
         <v>2</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U80" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6891,10 +6915,10 @@
         <v>2</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F81" s="3">
         <v>2</v>
@@ -6910,31 +6934,31 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R81" s="3">
         <v>1</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T81" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U81" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V81" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6948,10 +6972,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F82" s="3">
         <v>4</v>
@@ -6967,31 +6991,31 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R82" s="3">
         <v>1</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U82" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W82" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7005,10 +7029,10 @@
         <v>1</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F83" s="3">
         <v>1</v>
@@ -7024,31 +7048,31 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R83" s="3">
         <v>2</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T83" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U83" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V83" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W83" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7062,10 +7086,10 @@
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F84" s="3">
         <v>3</v>
@@ -7081,31 +7105,31 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P84" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R84" s="3">
         <v>2</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T84" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U84" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V84" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W84" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7119,10 +7143,10 @@
         <v>2</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F85" s="3">
         <v>2</v>
@@ -7138,31 +7162,31 @@
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R85" s="3">
         <v>1</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T85" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U85" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V85" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W85" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7176,10 +7200,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F86" s="3">
         <v>3</v>
@@ -7195,31 +7219,31 @@
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R86" s="3">
         <v>2</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U86" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V86" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W86" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7233,10 +7257,10 @@
         <v>2</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F87" s="3">
         <v>2</v>
@@ -7252,31 +7276,31 @@
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R87" s="3">
         <v>3</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T87" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U87" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V87" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7290,10 +7314,10 @@
         <v>2</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F88" s="3">
         <v>2</v>
@@ -7309,31 +7333,31 @@
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R88" s="3">
         <v>3</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U88" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V88" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W88" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7347,10 +7371,10 @@
         <v>3</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F89" s="3">
         <v>3</v>
@@ -7366,31 +7390,31 @@
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R89" s="3">
         <v>2</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T89" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U89" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V89" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W89" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7404,10 +7428,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F90" s="3">
         <v>2</v>
@@ -7423,31 +7447,31 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R90" s="3">
         <v>3</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T90" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U90" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V90" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W90" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7461,10 +7485,10 @@
         <v>2</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F91" s="3">
         <v>2</v>
@@ -7480,31 +7504,31 @@
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R91" s="3">
         <v>2</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T91" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U91" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V91" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W91" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7518,10 +7542,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F92" s="3">
         <v>3</v>
@@ -7537,31 +7561,31 @@
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R92" s="3">
         <v>1</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T92" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U92" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V92" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W92" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7575,10 +7599,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F93" s="3">
         <v>3</v>
@@ -7594,31 +7618,31 @@
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P93" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R93" s="3">
         <v>3</v>
       </c>
       <c r="S93" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T93" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U93" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V93" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W93" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7632,10 +7656,10 @@
         <v>2</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F94" s="3">
         <v>2</v>
@@ -7651,31 +7675,31 @@
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R94" s="3">
         <v>1</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U94" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V94" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W94" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7689,10 +7713,10 @@
         <v>2</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F95" s="3">
         <v>2</v>
@@ -7708,31 +7732,31 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P95" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R95" s="3">
         <v>2</v>
       </c>
       <c r="S95" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T95" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U95" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V95" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W95" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7746,10 +7770,10 @@
         <v>1</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F96" s="3">
         <v>3</v>
@@ -7765,31 +7789,31 @@
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R96" s="3">
         <v>1</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T96" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U96" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V96" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W96" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7803,10 +7827,10 @@
         <v>2</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F97" s="3">
         <v>1</v>
@@ -7822,31 +7846,31 @@
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R97" s="3">
         <v>1</v>
       </c>
       <c r="S97" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T97" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U97" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V97" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W97" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7860,10 +7884,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F98" s="3">
         <v>3</v>
@@ -7879,31 +7903,31 @@
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R98" s="3">
         <v>2</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T98" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U98" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V98" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W98" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7917,10 +7941,10 @@
         <v>2</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F99" s="3">
         <v>1</v>
@@ -7936,31 +7960,31 @@
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R99" s="3">
         <v>1</v>
       </c>
       <c r="S99" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T99" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U99" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V99" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W99" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7974,10 +7998,10 @@
         <v>2</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F100" s="3">
         <v>2</v>
@@ -7993,31 +8017,31 @@
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P100" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R100" s="3">
         <v>1</v>
       </c>
       <c r="S100" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U100" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V100" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W100" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8031,10 +8055,10 @@
         <v>2</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F101" s="3">
         <v>2</v>
@@ -8050,31 +8074,31 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R101" s="3">
         <v>1</v>
       </c>
       <c r="S101" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T101" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U101" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V101" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W101" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8088,10 +8112,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F102" s="3">
         <v>2</v>
@@ -8107,31 +8131,31 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P102" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R102" s="3">
         <v>2</v>
       </c>
       <c r="S102" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T102" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U102" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V102" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W102" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8145,10 +8169,10 @@
         <v>3</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F103" s="3">
         <v>2</v>
@@ -8164,31 +8188,31 @@
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R103" s="3">
         <v>2</v>
       </c>
       <c r="S103" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T103" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U103" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V103" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W103" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8202,10 +8226,10 @@
         <v>2</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F104" s="3">
         <v>2</v>
@@ -8221,31 +8245,31 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R104" s="3">
         <v>2</v>
       </c>
       <c r="S104" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T104" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U104" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V104" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W104" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8259,10 +8283,10 @@
         <v>2</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F105" s="3">
         <v>2</v>
@@ -8278,31 +8302,31 @@
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R105" s="3">
         <v>2</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T105" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U105" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V105" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W105" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8316,10 +8340,10 @@
         <v>2</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F106" s="3">
         <v>2</v>
@@ -8335,31 +8359,31 @@
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R106" s="3">
         <v>2</v>
       </c>
       <c r="S106" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T106" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U106" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V106" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W106" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8373,10 +8397,10 @@
         <v>3</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F107" s="3">
         <v>2</v>
@@ -8392,31 +8416,31 @@
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
       <c r="O107" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R107" s="3">
         <v>2</v>
       </c>
       <c r="S107" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T107" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U107" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V107" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W107" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8430,10 +8454,10 @@
         <v>3</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
@@ -8449,31 +8473,31 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P108" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R108" s="3">
         <v>1</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T108" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U108" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V108" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W108" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8487,10 +8511,10 @@
         <v>2</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F109" s="3">
         <v>2</v>
@@ -8506,31 +8530,31 @@
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
       <c r="O109" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P109" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R109" s="3">
         <v>2</v>
       </c>
       <c r="S109" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T109" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U109" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V109" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W109" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8544,10 +8568,10 @@
         <v>1</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -8563,31 +8587,31 @@
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
       <c r="O110" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R110" s="3">
         <v>1</v>
       </c>
       <c r="S110" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T110" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U110" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V110" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W110" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8601,10 +8625,10 @@
         <v>2</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F111" s="3">
         <v>1</v>
@@ -8620,31 +8644,31 @@
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P111" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R111" s="3">
         <v>1</v>
       </c>
       <c r="S111" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T111" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U111" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V111" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W111" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8658,10 +8682,10 @@
         <v>2</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F112" s="3">
         <v>2</v>
@@ -8677,31 +8701,31 @@
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
       <c r="O112" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P112" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R112" s="3">
         <v>2</v>
       </c>
       <c r="S112" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T112" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V112" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W112" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8715,10 +8739,10 @@
         <v>2</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F113" s="3">
         <v>3</v>
@@ -8734,31 +8758,31 @@
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q113" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R113" s="3">
         <v>2</v>
       </c>
       <c r="S113" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T113" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U113" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V113" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W113" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8772,10 +8796,10 @@
         <v>2</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F114" s="3">
         <v>3</v>
@@ -8791,31 +8815,31 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P114" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R114" s="3">
         <v>2</v>
       </c>
       <c r="S114" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T114" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U114" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V114" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W114" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8829,10 +8853,10 @@
         <v>2</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F115" s="3">
         <v>3</v>
@@ -8848,31 +8872,31 @@
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P115" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R115" s="3">
         <v>3</v>
       </c>
       <c r="S115" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T115" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U115" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V115" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W115" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8886,10 +8910,10 @@
         <v>2</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F116" s="3">
         <v>2</v>
@@ -8905,31 +8929,31 @@
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P116" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R116" s="3">
         <v>3</v>
       </c>
       <c r="S116" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T116" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U116" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V116" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W116" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8943,10 +8967,10 @@
         <v>3</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F117" s="3">
         <v>1</v>
@@ -8962,31 +8986,31 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P117" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q117" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R117" s="3">
         <v>2</v>
       </c>
       <c r="S117" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T117" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U117" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V117" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W117" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9000,10 +9024,10 @@
         <v>3</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F118" s="3">
         <v>3</v>
@@ -9019,31 +9043,31 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P118" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q118" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R118" s="3">
         <v>2</v>
       </c>
       <c r="S118" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T118" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U118" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V118" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W118" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9057,10 +9081,10 @@
         <v>2</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F119" s="3">
         <v>2</v>
@@ -9076,31 +9100,31 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P119" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R119" s="3">
         <v>2</v>
       </c>
       <c r="S119" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T119" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U119" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V119" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W119" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9114,10 +9138,10 @@
         <v>1</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F120" s="3">
         <v>2</v>
@@ -9133,31 +9157,31 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P120" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R120" s="3">
         <v>2</v>
       </c>
       <c r="S120" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T120" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U120" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V120" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W120" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9171,10 +9195,10 @@
         <v>2</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F121" s="3">
         <v>3</v>
@@ -9190,31 +9214,31 @@
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P121" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R121" s="3">
         <v>2</v>
       </c>
       <c r="S121" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T121" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U121" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V121" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W121" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9228,10 +9252,10 @@
         <v>1</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9247,31 +9271,31 @@
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P122" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R122" s="3">
         <v>1</v>
       </c>
       <c r="S122" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T122" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U122" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V122" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W122" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9285,10 +9309,10 @@
         <v>1</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F123" s="3">
         <v>2</v>
@@ -9304,31 +9328,31 @@
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P123" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R123" s="3">
         <v>1</v>
       </c>
       <c r="S123" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T123" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U123" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V123" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W123" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9342,10 +9366,10 @@
         <v>2</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F124" s="3">
         <v>2</v>
@@ -9361,31 +9385,31 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P124" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q124" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R124" s="3">
         <v>1</v>
       </c>
       <c r="S124" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T124" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U124" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V124" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W124" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9399,10 +9423,10 @@
         <v>3</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F125" s="3">
         <v>2</v>
@@ -9418,31 +9442,31 @@
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P125" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q125" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R125" s="3">
         <v>1</v>
       </c>
       <c r="S125" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T125" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U125" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V125" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W125" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9456,10 +9480,10 @@
         <v>3</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F126" s="3">
         <v>2</v>
@@ -9475,31 +9499,31 @@
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P126" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q126" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R126" s="3">
         <v>2</v>
       </c>
       <c r="S126" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T126" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U126" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V126" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W126" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9513,10 +9537,10 @@
         <v>2</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F127" s="3">
         <v>2</v>
@@ -9532,31 +9556,31 @@
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P127" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q127" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R127" s="3">
         <v>1</v>
       </c>
       <c r="S127" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T127" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U127" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V127" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W127" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9570,10 +9594,10 @@
         <v>1</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9589,31 +9613,31 @@
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P128" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q128" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R128" s="3">
         <v>1</v>
       </c>
       <c r="S128" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T128" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U128" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V128" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W128" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9627,10 +9651,10 @@
         <v>2</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F129" s="3">
         <v>2</v>
@@ -9646,31 +9670,31 @@
       <c r="M129" s="9"/>
       <c r="N129" s="9"/>
       <c r="O129" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q129" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R129" s="3">
         <v>1</v>
       </c>
       <c r="S129" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T129" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U129" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V129" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W129" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Green@Community_DataAnalysis/GCAP3226 G@C Survey Responses_cleaned data.xlsx
+++ b/Green@Community_DataAnalysis/GCAP3226 G@C Survey Responses_cleaned data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/Green-Community_DataAnalysis/Green@Community_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9539176A-6762-CE49-BBC1-CCB10F070E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF24510-BE34-364C-B5FC-F83E83D4E2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,12 +87,6 @@
     <t>年齡  Age</t>
   </si>
   <si>
-    <t>教育程度  Education level</t>
-  </si>
-  <si>
-    <t>就業狀况  Employment status</t>
-  </si>
-  <si>
     <t>住宅樓宇類型  Type of building you live in</t>
   </si>
   <si>
@@ -148,21 +142,6 @@
       </rPr>
       <t>對本地回收的了解程度屬於哪一水平？
 How would you rate your level of knowledge about recycling?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>你多大程度同意「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>回收 對環保及可持續發展很重要」？
-To what extent do you agree that "recycling is important for environmental protection and sustainable development?"</t>
     </r>
   </si>
   <si>
@@ -895,6 +874,97 @@
       </rPr>
       <t xml:space="preserve">
 Before the Green@Community recycling network was introduced, did you have recycling habit?</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>教育程度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Education level</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>你多大程度同意「回收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>對環保及可持續發展很重要」？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+To what extent do you agree that "recycling is important for environmental protection and sustainable development?"</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>就業狀况</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Employment status</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1889,9 +1959,9 @@
   </sheetPr>
   <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="50" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
+      <selection pane="bottomLeft" activeCell="U133" sqref="U133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1926,56 +1996,56 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>20</v>
+      <c r="B1" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="11" t="s">
+      <c r="P1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="R1" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>5</v>
@@ -1983,14 +2053,14 @@
       <c r="T1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2004,10 +2074,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F2" s="8">
         <v>4</v>
@@ -2016,25 +2086,25 @@
         <v>4</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -2043,19 +2113,19 @@
         <v>1</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2069,10 +2139,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F3" s="3">
         <v>4</v>
@@ -2081,25 +2151,25 @@
         <v>4</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -2108,19 +2178,19 @@
         <v>2</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2134,10 +2204,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
@@ -2146,25 +2216,25 @@
         <v>2</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -2173,19 +2243,19 @@
         <v>2</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2199,10 +2269,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -2211,25 +2281,25 @@
         <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -2238,19 +2308,19 @@
         <v>2</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2264,10 +2334,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3">
         <v>3</v>
@@ -2276,25 +2346,25 @@
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -2303,19 +2373,19 @@
         <v>1</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2329,10 +2399,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F7" s="3">
         <v>3</v>
@@ -2341,25 +2411,25 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -2368,19 +2438,19 @@
         <v>2</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2394,10 +2464,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F8" s="3">
         <v>3</v>
@@ -2406,25 +2476,25 @@
         <v>3</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -2433,19 +2503,19 @@
         <v>1</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2459,10 +2529,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F9" s="3">
         <v>2</v>
@@ -2471,25 +2541,25 @@
         <v>2</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -2498,19 +2568,19 @@
         <v>2</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2524,10 +2594,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -2536,25 +2606,25 @@
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -2563,19 +2633,19 @@
         <v>2</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2589,10 +2659,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11" s="3">
         <v>3</v>
@@ -2601,25 +2671,25 @@
         <v>3</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -2628,19 +2698,19 @@
         <v>3</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2654,10 +2724,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F12" s="3">
         <v>3</v>
@@ -2666,25 +2736,25 @@
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -2693,19 +2763,19 @@
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2719,37 +2789,37 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="3">
-        <v>3</v>
-      </c>
-      <c r="G13" s="3">
-        <v>3</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="N13" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -2758,19 +2828,19 @@
         <v>3</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2784,10 +2854,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F14" s="3">
         <v>4</v>
@@ -2796,25 +2866,25 @@
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -2823,19 +2893,19 @@
         <v>2</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2849,10 +2919,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
@@ -2861,25 +2931,25 @@
         <v>2</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -2888,19 +2958,19 @@
         <v>1</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2914,10 +2984,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F16" s="3">
         <v>3</v>
@@ -2926,25 +2996,25 @@
         <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -2953,19 +3023,19 @@
         <v>3</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2979,10 +3049,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F17" s="3">
         <v>3</v>
@@ -2991,25 +3061,25 @@
         <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -3018,19 +3088,19 @@
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3044,10 +3114,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
@@ -3056,25 +3126,25 @@
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -3083,19 +3153,19 @@
         <v>2</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3109,10 +3179,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F19" s="3">
         <v>3</v>
@@ -3121,25 +3191,25 @@
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -3148,19 +3218,19 @@
         <v>3</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3174,10 +3244,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
@@ -3186,25 +3256,25 @@
         <v>2</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="L20" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -3213,19 +3283,19 @@
         <v>2</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3239,10 +3309,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F21" s="3">
         <v>3</v>
@@ -3251,25 +3321,25 @@
         <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -3278,19 +3348,19 @@
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3304,10 +3374,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F22" s="3">
         <v>3</v>
@@ -3316,25 +3386,25 @@
         <v>3</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -3343,19 +3413,19 @@
         <v>2</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3369,10 +3439,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F23" s="3">
         <v>3</v>
@@ -3381,25 +3451,25 @@
         <v>3</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3408,19 +3478,19 @@
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3434,10 +3504,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F24" s="3">
         <v>4</v>
@@ -3446,25 +3516,25 @@
         <v>4</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -3473,19 +3543,19 @@
         <v>4</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3499,10 +3569,10 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F25" s="3">
         <v>3</v>
@@ -3511,25 +3581,25 @@
         <v>3</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -3538,19 +3608,19 @@
         <v>3</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3564,10 +3634,10 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F26" s="3">
         <v>3</v>
@@ -3576,25 +3646,25 @@
         <v>3</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="L26" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -3603,19 +3673,19 @@
         <v>2</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3629,10 +3699,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F27" s="3">
         <v>3</v>
@@ -3641,25 +3711,25 @@
         <v>2</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -3668,19 +3738,19 @@
         <v>1</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3694,10 +3764,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F28" s="3">
         <v>4</v>
@@ -3706,25 +3776,25 @@
         <v>4</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -3733,19 +3803,19 @@
         <v>2</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3759,10 +3829,10 @@
         <v>4</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F29" s="3">
         <v>4</v>
@@ -3771,25 +3841,25 @@
         <v>4</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3798,19 +3868,19 @@
         <v>4</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3824,10 +3894,10 @@
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F30" s="3">
         <v>3</v>
@@ -3836,25 +3906,25 @@
         <v>3</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="L30" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -3863,19 +3933,19 @@
         <v>3</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3889,10 +3959,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F31" s="3">
         <v>2</v>
@@ -3901,25 +3971,25 @@
         <v>2</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -3928,19 +3998,19 @@
         <v>1</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3954,10 +4024,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F32" s="3">
         <v>3</v>
@@ -3966,25 +4036,25 @@
         <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -3993,19 +4063,19 @@
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4019,10 +4089,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F33" s="3">
         <v>3</v>
@@ -4031,25 +4101,25 @@
         <v>3</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -4058,19 +4128,19 @@
         <v>2</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4084,10 +4154,10 @@
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F34" s="3">
         <v>3</v>
@@ -4096,25 +4166,25 @@
         <v>3</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -4123,19 +4193,19 @@
         <v>3</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4149,10 +4219,10 @@
         <v>4</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F35" s="3">
         <v>4</v>
@@ -4161,25 +4231,25 @@
         <v>4</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -4188,19 +4258,19 @@
         <v>2</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4214,10 +4284,10 @@
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F36" s="3">
         <v>2</v>
@@ -4226,25 +4296,25 @@
         <v>2</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -4253,19 +4323,19 @@
         <v>2</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4279,10 +4349,10 @@
         <v>4</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F37" s="3">
         <v>3</v>
@@ -4291,25 +4361,25 @@
         <v>2</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -4318,19 +4388,19 @@
         <v>2</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4344,10 +4414,10 @@
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F38" s="3">
         <v>3</v>
@@ -4356,25 +4426,25 @@
         <v>3</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -4383,19 +4453,19 @@
         <v>3</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4409,10 +4479,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F39" s="3">
         <v>3</v>
@@ -4421,25 +4491,25 @@
         <v>3</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
@@ -4448,19 +4518,19 @@
         <v>3</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4474,10 +4544,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F40" s="3">
         <v>4</v>
@@ -4486,25 +4556,25 @@
         <v>4</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
@@ -4513,19 +4583,19 @@
         <v>4</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4539,37 +4609,37 @@
         <v>4</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="3">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="3">
-        <v>4</v>
-      </c>
-      <c r="G41" s="3">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="N41" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
@@ -4578,19 +4648,19 @@
         <v>4</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4604,10 +4674,10 @@
         <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F42" s="3">
         <v>4</v>
@@ -4616,25 +4686,25 @@
         <v>3</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
@@ -4643,19 +4713,19 @@
         <v>3</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4669,10 +4739,10 @@
         <v>4</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F43" s="3">
         <v>4</v>
@@ -4681,25 +4751,25 @@
         <v>3</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -4708,19 +4778,19 @@
         <v>2</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4734,10 +4804,10 @@
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F44" s="3">
         <v>4</v>
@@ -4746,25 +4816,25 @@
         <v>4</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
@@ -4773,19 +4843,19 @@
         <v>3</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4799,10 +4869,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F45" s="3">
         <v>2</v>
@@ -4811,25 +4881,25 @@
         <v>1</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
@@ -4838,19 +4908,19 @@
         <v>1</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W45" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4864,37 +4934,37 @@
         <v>3</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="3">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="3">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="N46" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
@@ -4903,19 +4973,19 @@
         <v>3</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4929,10 +4999,10 @@
         <v>3</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F47" s="3">
         <v>3</v>
@@ -4941,25 +5011,25 @@
         <v>3</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
@@ -4968,19 +5038,19 @@
         <v>3</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4994,10 +5064,10 @@
         <v>3</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F48" s="3">
         <v>3</v>
@@ -5006,25 +5076,25 @@
         <v>2</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
@@ -5033,19 +5103,19 @@
         <v>3</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5059,10 +5129,10 @@
         <v>3</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F49" s="3">
         <v>3</v>
@@ -5071,25 +5141,25 @@
         <v>4</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
@@ -5098,19 +5168,19 @@
         <v>3</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5124,10 +5194,10 @@
         <v>3</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F50" s="3">
         <v>3</v>
@@ -5136,25 +5206,25 @@
         <v>3</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -5163,19 +5233,19 @@
         <v>2</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5189,10 +5259,10 @@
         <v>3</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F51" s="3">
         <v>3</v>
@@ -5201,25 +5271,25 @@
         <v>3</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
@@ -5228,19 +5298,19 @@
         <v>2</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5254,10 +5324,10 @@
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F52" s="3">
         <v>1</v>
@@ -5266,25 +5336,25 @@
         <v>3</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I52" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="L52" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
@@ -5293,19 +5363,19 @@
         <v>2</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5319,10 +5389,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F53" s="3">
         <v>1</v>
@@ -5338,31 +5408,31 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="R53" s="3">
         <v>1</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5376,10 +5446,10 @@
         <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F54" s="3">
         <v>2</v>
@@ -5395,31 +5465,31 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="R54" s="3">
         <v>1</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5433,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F55" s="3">
         <v>2</v>
@@ -5452,31 +5522,31 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="R55" s="3">
         <v>2</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5490,10 +5560,10 @@
         <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F56" s="3">
         <v>3</v>
@@ -5509,31 +5579,31 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="R56" s="3">
         <v>3</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5547,10 +5617,10 @@
         <v>3</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F57" s="3">
         <v>1</v>
@@ -5566,31 +5636,31 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="R57" s="3">
         <v>1</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5604,10 +5674,10 @@
         <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F58" s="3">
         <v>3</v>
@@ -5623,31 +5693,31 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="R58" s="3">
         <v>2</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5661,10 +5731,10 @@
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F59" s="3">
         <v>3</v>
@@ -5680,31 +5750,31 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="R59" s="3">
         <v>2</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5718,10 +5788,10 @@
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F60" s="3">
         <v>3</v>
@@ -5737,31 +5807,31 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R60" s="3">
         <v>2</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U60" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5775,10 +5845,10 @@
         <v>3</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F61" s="3">
         <v>2</v>
@@ -5794,31 +5864,31 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R61" s="3">
         <v>1</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5832,10 +5902,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F62" s="3">
         <v>2</v>
@@ -5851,31 +5921,31 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="R62" s="3">
         <v>3</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5889,10 +5959,10 @@
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F63" s="3">
         <v>2</v>
@@ -5908,31 +5978,31 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R63" s="3">
         <v>1</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5946,10 +6016,10 @@
         <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F64" s="3">
         <v>1</v>
@@ -5965,31 +6035,31 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="R64" s="3">
         <v>1</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U64" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6003,10 +6073,10 @@
         <v>3</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F65" s="3">
         <v>2</v>
@@ -6022,31 +6092,31 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R65" s="3">
         <v>1</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6060,10 +6130,10 @@
         <v>2</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F66" s="3">
         <v>3</v>
@@ -6079,31 +6149,31 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="R66" s="3">
         <v>3</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6117,10 +6187,10 @@
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F67" s="3">
         <v>2</v>
@@ -6136,31 +6206,31 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="R67" s="3">
         <v>1</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U67" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6174,10 +6244,10 @@
         <v>2</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F68" s="3">
         <v>3</v>
@@ -6193,31 +6263,31 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R68" s="3">
         <v>2</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U68" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6231,10 +6301,10 @@
         <v>2</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F69" s="3">
         <v>3</v>
@@ -6250,31 +6320,31 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="R69" s="3">
         <v>2</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T69" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U69" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V69" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6288,10 +6358,10 @@
         <v>1</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F70" s="3">
         <v>1</v>
@@ -6307,31 +6377,31 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R70" s="3">
         <v>2</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U70" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6345,10 +6415,10 @@
         <v>2</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F71" s="3">
         <v>3</v>
@@ -6364,31 +6434,31 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R71" s="3">
         <v>1</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U71" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6402,10 +6472,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F72" s="3">
         <v>2</v>
@@ -6421,31 +6491,31 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R72" s="3">
         <v>3</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T72" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U72" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6459,10 +6529,10 @@
         <v>3</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F73" s="3">
         <v>2</v>
@@ -6478,31 +6548,31 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="R73" s="3">
         <v>2</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T73" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U73" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6516,10 +6586,10 @@
         <v>3</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F74" s="3">
         <v>3</v>
@@ -6535,31 +6605,31 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R74" s="3">
         <v>2</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6573,10 +6643,10 @@
         <v>2</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F75" s="3">
         <v>3</v>
@@ -6592,31 +6662,31 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R75" s="3">
         <v>2</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T75" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U75" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6630,10 +6700,10 @@
         <v>2</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F76" s="3">
         <v>2</v>
@@ -6649,31 +6719,31 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="R76" s="3">
         <v>3</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V76" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6687,10 +6757,10 @@
         <v>2</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F77" s="3">
         <v>3</v>
@@ -6706,31 +6776,31 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="R77" s="3">
         <v>2</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T77" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U77" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6744,10 +6814,10 @@
         <v>2</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F78" s="3">
         <v>3</v>
@@ -6763,31 +6833,31 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R78" s="3">
         <v>1</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6801,10 +6871,10 @@
         <v>2</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F79" s="3">
         <v>3</v>
@@ -6820,31 +6890,31 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="R79" s="3">
         <v>2</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U79" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="V79" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6858,10 +6928,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F80" s="3">
         <v>3</v>
@@ -6877,31 +6947,31 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R80" s="3">
         <v>2</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U80" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6915,10 +6985,10 @@
         <v>2</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F81" s="3">
         <v>2</v>
@@ -6934,31 +7004,31 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R81" s="3">
         <v>1</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T81" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U81" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V81" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6972,10 +7042,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F82" s="3">
         <v>4</v>
@@ -6991,31 +7061,31 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R82" s="3">
         <v>1</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U82" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W82" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7029,10 +7099,10 @@
         <v>1</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F83" s="3">
         <v>1</v>
@@ -7048,31 +7118,31 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R83" s="3">
         <v>2</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T83" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U83" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V83" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W83" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7086,10 +7156,10 @@
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F84" s="3">
         <v>3</v>
@@ -7105,31 +7175,31 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P84" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="R84" s="3">
         <v>2</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T84" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U84" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V84" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W84" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7143,10 +7213,10 @@
         <v>2</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F85" s="3">
         <v>2</v>
@@ -7162,31 +7232,31 @@
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R85" s="3">
         <v>1</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T85" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U85" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V85" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W85" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7200,10 +7270,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F86" s="3">
         <v>3</v>
@@ -7219,31 +7289,31 @@
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="R86" s="3">
         <v>2</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U86" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V86" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="W86" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7257,10 +7327,10 @@
         <v>2</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F87" s="3">
         <v>2</v>
@@ -7276,31 +7346,31 @@
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="R87" s="3">
         <v>3</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T87" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U87" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V87" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7314,10 +7384,10 @@
         <v>2</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F88" s="3">
         <v>2</v>
@@ -7333,31 +7403,31 @@
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R88" s="3">
         <v>3</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U88" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V88" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W88" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7371,10 +7441,10 @@
         <v>3</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F89" s="3">
         <v>3</v>
@@ -7390,31 +7460,31 @@
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R89" s="3">
         <v>2</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T89" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U89" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V89" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W89" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7428,10 +7498,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F90" s="3">
         <v>2</v>
@@ -7447,31 +7517,31 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="R90" s="3">
         <v>3</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T90" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U90" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V90" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W90" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7485,10 +7555,10 @@
         <v>2</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F91" s="3">
         <v>2</v>
@@ -7504,31 +7574,31 @@
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R91" s="3">
         <v>2</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T91" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U91" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V91" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W91" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7542,10 +7612,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F92" s="3">
         <v>3</v>
@@ -7561,31 +7631,31 @@
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="R92" s="3">
         <v>1</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T92" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U92" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V92" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W92" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7599,10 +7669,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F93" s="3">
         <v>3</v>
@@ -7618,31 +7688,31 @@
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P93" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="R93" s="3">
         <v>3</v>
       </c>
       <c r="S93" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T93" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U93" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V93" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W93" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7656,10 +7726,10 @@
         <v>2</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F94" s="3">
         <v>2</v>
@@ -7675,31 +7745,31 @@
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R94" s="3">
         <v>1</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U94" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V94" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W94" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7713,10 +7783,10 @@
         <v>2</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F95" s="3">
         <v>2</v>
@@ -7732,31 +7802,31 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P95" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="R95" s="3">
         <v>2</v>
       </c>
       <c r="S95" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T95" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U95" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V95" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W95" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7770,10 +7840,10 @@
         <v>1</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F96" s="3">
         <v>3</v>
@@ -7789,31 +7859,31 @@
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R96" s="3">
         <v>1</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T96" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U96" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V96" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W96" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7827,10 +7897,10 @@
         <v>2</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F97" s="3">
         <v>1</v>
@@ -7846,31 +7916,31 @@
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R97" s="3">
         <v>1</v>
       </c>
       <c r="S97" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T97" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U97" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V97" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W97" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7884,10 +7954,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F98" s="3">
         <v>3</v>
@@ -7903,31 +7973,31 @@
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="R98" s="3">
         <v>2</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T98" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U98" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V98" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W98" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7941,10 +8011,10 @@
         <v>2</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F99" s="3">
         <v>1</v>
@@ -7960,31 +8030,31 @@
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R99" s="3">
         <v>1</v>
       </c>
       <c r="S99" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T99" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U99" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V99" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W99" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7998,10 +8068,10 @@
         <v>2</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F100" s="3">
         <v>2</v>
@@ -8017,31 +8087,31 @@
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P100" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R100" s="3">
         <v>1</v>
       </c>
       <c r="S100" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U100" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V100" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W100" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8055,10 +8125,10 @@
         <v>2</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F101" s="3">
         <v>2</v>
@@ -8074,31 +8144,31 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R101" s="3">
         <v>1</v>
       </c>
       <c r="S101" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T101" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U101" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V101" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W101" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8112,10 +8182,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F102" s="3">
         <v>2</v>
@@ -8131,31 +8201,31 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P102" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R102" s="3">
         <v>2</v>
       </c>
       <c r="S102" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T102" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U102" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="V102" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W102" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8169,10 +8239,10 @@
         <v>3</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F103" s="3">
         <v>2</v>
@@ -8188,31 +8258,31 @@
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="R103" s="3">
         <v>2</v>
       </c>
       <c r="S103" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T103" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U103" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V103" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W103" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8226,10 +8296,10 @@
         <v>2</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F104" s="3">
         <v>2</v>
@@ -8245,31 +8315,31 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="R104" s="3">
         <v>2</v>
       </c>
       <c r="S104" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T104" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U104" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V104" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W104" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8283,10 +8353,10 @@
         <v>2</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F105" s="3">
         <v>2</v>
@@ -8302,31 +8372,31 @@
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R105" s="3">
         <v>2</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T105" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U105" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V105" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W105" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8340,10 +8410,10 @@
         <v>2</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F106" s="3">
         <v>2</v>
@@ -8359,31 +8429,31 @@
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R106" s="3">
         <v>2</v>
       </c>
       <c r="S106" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T106" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U106" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V106" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W106" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8397,10 +8467,10 @@
         <v>3</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F107" s="3">
         <v>2</v>
@@ -8416,31 +8486,31 @@
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
       <c r="O107" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="R107" s="3">
         <v>2</v>
       </c>
       <c r="S107" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T107" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U107" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V107" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W107" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8454,10 +8524,10 @@
         <v>3</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
@@ -8473,31 +8543,31 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P108" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="R108" s="3">
         <v>1</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T108" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U108" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V108" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W108" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8511,10 +8581,10 @@
         <v>2</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F109" s="3">
         <v>2</v>
@@ -8530,31 +8600,31 @@
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
       <c r="O109" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P109" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R109" s="3">
         <v>2</v>
       </c>
       <c r="S109" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T109" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U109" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V109" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W109" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8568,10 +8638,10 @@
         <v>1</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -8587,31 +8657,31 @@
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
       <c r="O110" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R110" s="3">
         <v>1</v>
       </c>
       <c r="S110" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T110" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U110" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V110" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W110" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8625,10 +8695,10 @@
         <v>2</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F111" s="3">
         <v>1</v>
@@ -8644,31 +8714,31 @@
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P111" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R111" s="3">
         <v>1</v>
       </c>
       <c r="S111" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T111" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U111" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V111" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V111" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="W111" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8682,10 +8752,10 @@
         <v>2</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F112" s="3">
         <v>2</v>
@@ -8701,31 +8771,31 @@
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
       <c r="O112" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P112" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R112" s="3">
         <v>2</v>
       </c>
       <c r="S112" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T112" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V112" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W112" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8739,10 +8809,10 @@
         <v>2</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F113" s="3">
         <v>3</v>
@@ -8758,31 +8828,31 @@
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q113" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="R113" s="3">
         <v>2</v>
       </c>
       <c r="S113" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T113" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U113" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V113" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W113" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8796,10 +8866,10 @@
         <v>2</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F114" s="3">
         <v>3</v>
@@ -8815,31 +8885,31 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P114" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R114" s="3">
         <v>2</v>
       </c>
       <c r="S114" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T114" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U114" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V114" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W114" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8853,10 +8923,10 @@
         <v>2</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F115" s="3">
         <v>3</v>
@@ -8872,31 +8942,31 @@
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P115" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="R115" s="3">
         <v>3</v>
       </c>
       <c r="S115" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T115" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U115" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V115" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W115" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8910,10 +8980,10 @@
         <v>2</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F116" s="3">
         <v>2</v>
@@ -8929,31 +8999,31 @@
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P116" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="R116" s="3">
         <v>3</v>
       </c>
       <c r="S116" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T116" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U116" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V116" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W116" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8967,10 +9037,10 @@
         <v>3</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F117" s="3">
         <v>1</v>
@@ -8986,31 +9056,31 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P117" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q117" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R117" s="3">
         <v>2</v>
       </c>
       <c r="S117" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T117" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U117" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V117" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W117" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9024,10 +9094,10 @@
         <v>3</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F118" s="3">
         <v>3</v>
@@ -9043,31 +9113,31 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P118" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q118" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R118" s="3">
         <v>2</v>
       </c>
       <c r="S118" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T118" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U118" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V118" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W118" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9081,10 +9151,10 @@
         <v>2</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F119" s="3">
         <v>2</v>
@@ -9100,31 +9170,31 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P119" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R119" s="3">
         <v>2</v>
       </c>
       <c r="S119" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T119" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U119" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V119" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W119" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9138,10 +9208,10 @@
         <v>1</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F120" s="3">
         <v>2</v>
@@ -9157,31 +9227,31 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P120" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R120" s="3">
         <v>2</v>
       </c>
       <c r="S120" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T120" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U120" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V120" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W120" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9195,10 +9265,10 @@
         <v>2</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F121" s="3">
         <v>3</v>
@@ -9214,31 +9284,31 @@
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P121" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R121" s="3">
         <v>2</v>
       </c>
       <c r="S121" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T121" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U121" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V121" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W121" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9252,10 +9322,10 @@
         <v>1</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9271,31 +9341,31 @@
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P122" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R122" s="3">
         <v>1</v>
       </c>
       <c r="S122" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T122" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U122" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V122" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W122" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9309,10 +9379,10 @@
         <v>1</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F123" s="3">
         <v>2</v>
@@ -9328,31 +9398,31 @@
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P123" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R123" s="3">
         <v>1</v>
       </c>
       <c r="S123" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T123" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U123" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V123" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W123" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9366,10 +9436,10 @@
         <v>2</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F124" s="3">
         <v>2</v>
@@ -9385,31 +9455,31 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P124" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q124" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R124" s="3">
         <v>1</v>
       </c>
       <c r="S124" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T124" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U124" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V124" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W124" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9423,10 +9493,10 @@
         <v>3</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F125" s="3">
         <v>2</v>
@@ -9442,31 +9512,31 @@
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P125" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q125" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="R125" s="3">
         <v>1</v>
       </c>
       <c r="S125" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T125" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U125" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V125" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V125" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="W125" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9480,10 +9550,10 @@
         <v>3</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F126" s="3">
         <v>2</v>
@@ -9499,31 +9569,31 @@
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P126" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q126" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="R126" s="3">
         <v>2</v>
       </c>
       <c r="S126" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T126" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U126" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V126" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W126" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9537,10 +9607,10 @@
         <v>2</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F127" s="3">
         <v>2</v>
@@ -9556,31 +9626,31 @@
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P127" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q127" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R127" s="3">
         <v>1</v>
       </c>
       <c r="S127" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T127" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U127" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V127" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W127" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9594,10 +9664,10 @@
         <v>1</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9613,31 +9683,31 @@
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P128" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q128" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R128" s="3">
         <v>1</v>
       </c>
       <c r="S128" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T128" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U128" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V128" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W128" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9651,10 +9721,10 @@
         <v>2</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F129" s="3">
         <v>2</v>
@@ -9670,31 +9740,31 @@
       <c r="M129" s="9"/>
       <c r="N129" s="9"/>
       <c r="O129" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q129" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="R129" s="3">
         <v>1</v>
       </c>
       <c r="S129" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T129" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U129" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V129" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W129" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Green@Community_DataAnalysis/GCAP3226 G@C Survey Responses_cleaned data.xlsx
+++ b/Green@Community_DataAnalysis/GCAP3226 G@C Survey Responses_cleaned data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/Green-Community_DataAnalysis/Green@Community_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF24510-BE34-364C-B5FC-F83E83D4E2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AAFD51-2E74-8F4F-8B64-F1E189656AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1959,9 +1959,9 @@
   </sheetPr>
   <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U133" sqref="U133"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q134" sqref="Q134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Green@Community_DataAnalysis/GCAP3226 G@C Survey Responses_cleaned data.xlsx
+++ b/Green@Community_DataAnalysis/GCAP3226 G@C Survey Responses_cleaned data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/Green-Community_DataAnalysis/Green@Community_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AAFD51-2E74-8F4F-8B64-F1E189656AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD06A10-CEAB-CD49-9D9D-CA6E266471A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1959,9 +1959,9 @@
   </sheetPr>
   <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q134" sqref="Q134"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q143" sqref="Q143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Green@Community_DataAnalysis/GCAP3226 G@C Survey Responses_cleaned data.xlsx
+++ b/Green@Community_DataAnalysis/GCAP3226 G@C Survey Responses_cleaned data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/Green-Community_DataAnalysis/Green@Community_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD06A10-CEAB-CD49-9D9D-CA6E266471A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445AAAD3-BD7D-364C-BAFF-DE164657A932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1960,8 +1960,8 @@
   <dimension ref="A1:W129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q143" sqref="Q143"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q142" sqref="Q142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Green@Community_DataAnalysis/GCAP3226 G@C Survey Responses_cleaned data.xlsx
+++ b/Green@Community_DataAnalysis/GCAP3226 G@C Survey Responses_cleaned data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/Green-Community_DataAnalysis/Green@Community_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445AAAD3-BD7D-364C-BAFF-DE164657A932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EFAEB2-0A2C-7146-9302-4420581B7ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1959,9 +1959,9 @@
   </sheetPr>
   <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q142" sqref="Q142"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="63" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T89" sqref="T89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Green@Community_DataAnalysis/GCAP3226 G@C Survey Responses_cleaned data.xlsx
+++ b/Green@Community_DataAnalysis/GCAP3226 G@C Survey Responses_cleaned data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/Green-Community_DataAnalysis/Green@Community_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EFAEB2-0A2C-7146-9302-4420581B7ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DBBD9A-FD7C-5A46-86DF-4F5A04F745B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,50 +25,6 @@
     <t>Timestamp</t>
   </si>
   <si>
-    <r>
-      <t>你認為「綠在區區」</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>提升公眾環保意識</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>成效</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>如何？
-How effective do you perceive the Green@Community to be in raising public environmental awareness?</t>
-    </r>
-  </si>
-  <si>
     <t>你是否已登記「綠綠賞（電子）積分計劃」？
 Have you registered for the GREEN$ (Electronic) Participation Incentive Scheme (GREEN$ ePIS)?</t>
   </si>
@@ -85,9 +41,6 @@
   </si>
   <si>
     <t>年齡  Age</t>
-  </si>
-  <si>
-    <t>住宅樓宇類型  Type of building you live in</t>
   </si>
   <si>
     <t>18 - 24</t>
@@ -637,7 +590,7 @@
       <t xml:space="preserve">
 How effective do you perceive the Green@Community to be in improving Hong Kong’s recycling efficiency?</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -660,7 +613,7 @@
       <t xml:space="preserve">
 On average, how many times per month do you use Green@Community recycling facilities?</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -684,7 +637,7 @@
       <t xml:space="preserve">
 Do you use the same Green@Community facility every time you recycle?</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -707,7 +660,7 @@
       <t xml:space="preserve">
 What are the main factors when choosing which Green@Community facility to use?</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -731,7 +684,7 @@
       <t xml:space="preserve">
 Do you know where is the Green@Community facility nearby your home?</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -775,83 +728,59 @@
       <t xml:space="preserve">
 What are the reasons you did not use Green@Community facilities in the past 12 months?</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>在了解以上數據後，你覺得「綠在區區」的整體效益是否令人滿意？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-After reading the above, do you think Green@Community's overall effectiveness is satisfactory?</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Yes, rarely (less than once per month)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Yes, occasionally (1–3 times per month)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Yes, regularly (at least once per week or more)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>To earn rewards, Convenience place</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Convenience place, To earn rewards, Reduce waste of resources</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Family/friends encourage it</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Comfortable facility environment</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Have confidence</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>No, I use different facilities depending on location/time</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Mostly the same facility, but occasionally others</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Close to home</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Close to work/school, Short queues/less crowds, Complete barrier-free facilities</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Beverage carton, Bubble wrap, Glass bottles, LED light bulb</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -875,7 +804,7 @@
       <t xml:space="preserve">
 Before the Green@Community recycling network was introduced, did you have recycling habit?</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -899,7 +828,7 @@
       </rPr>
       <t xml:space="preserve">  Education level</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -943,7 +872,55 @@
       <t xml:space="preserve">
 To what extent do you agree that "recycling is important for environmental protection and sustainable development?"</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>你認為「綠在區區」提升公眾環保意識的成效如何？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+How effective do you perceive the Green@Community to be in raising public environmental awareness?</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在了解以上數據後，你覺得「綠在區區」的整體效益是否令人滿意？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+After reading the above, do you think Green@Community's overall effectiveness is satisfactory?</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -962,11 +939,35 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  Employment status</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>住宅樓宇類型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Type of building you live in</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -976,7 +977,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -989,13 +990,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1118,11 +1112,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1134,10 +1128,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1959,9 +1953,9 @@
   </sheetPr>
   <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="63" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T89" sqref="T89"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="63" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X127" sqref="X127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1997,70 +1991,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2074,10 +2068,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="8">
         <v>4</v>
@@ -2086,25 +2080,25 @@
         <v>4</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -2113,19 +2107,19 @@
         <v>1</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="W2" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2139,10 +2133,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" s="3">
         <v>4</v>
@@ -2151,25 +2145,25 @@
         <v>4</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -2178,19 +2172,19 @@
         <v>2</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2204,10 +2198,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
@@ -2216,25 +2210,25 @@
         <v>2</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -2243,19 +2237,19 @@
         <v>2</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2269,10 +2263,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -2281,25 +2275,25 @@
         <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -2308,19 +2302,19 @@
         <v>2</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2334,10 +2328,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3">
         <v>3</v>
@@ -2346,25 +2340,25 @@
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -2373,19 +2367,19 @@
         <v>1</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="W6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2399,10 +2393,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F7" s="3">
         <v>3</v>
@@ -2411,25 +2405,25 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -2438,19 +2432,19 @@
         <v>2</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2464,10 +2458,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3">
         <v>3</v>
@@ -2476,25 +2470,25 @@
         <v>3</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -2503,19 +2497,19 @@
         <v>1</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2529,10 +2523,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="3">
         <v>2</v>
@@ -2541,25 +2535,25 @@
         <v>2</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -2568,19 +2562,19 @@
         <v>2</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2594,10 +2588,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -2606,25 +2600,25 @@
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -2633,19 +2627,19 @@
         <v>2</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2659,10 +2653,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="3">
         <v>3</v>
@@ -2671,25 +2665,25 @@
         <v>3</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -2698,19 +2692,19 @@
         <v>3</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2724,10 +2718,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="3">
         <v>3</v>
@@ -2736,25 +2730,25 @@
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -2763,19 +2757,19 @@
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2789,10 +2783,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="3">
         <v>3</v>
@@ -2801,25 +2795,25 @@
         <v>3</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="N13" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -2828,19 +2822,19 @@
         <v>3</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2854,37 +2848,37 @@
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="3">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="N14" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -2893,19 +2887,19 @@
         <v>2</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2919,37 +2913,37 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="N15" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -2958,19 +2952,19 @@
         <v>1</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="W15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -2984,37 +2978,37 @@
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="3">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3">
-        <v>3</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="N16" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -3023,19 +3017,19 @@
         <v>3</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3049,10 +3043,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" s="3">
         <v>3</v>
@@ -3061,25 +3055,25 @@
         <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -3088,19 +3082,19 @@
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3114,10 +3108,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
@@ -3126,25 +3120,25 @@
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -3153,19 +3147,19 @@
         <v>2</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="W18" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3179,10 +3173,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" s="3">
         <v>3</v>
@@ -3191,25 +3185,25 @@
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -3218,19 +3212,19 @@
         <v>3</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3244,37 +3238,37 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="N20" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -3283,19 +3277,19 @@
         <v>2</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3309,37 +3303,37 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="3">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="N21" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -3348,19 +3342,19 @@
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3374,10 +3368,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" s="3">
         <v>3</v>
@@ -3386,25 +3380,25 @@
         <v>3</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -3413,19 +3407,19 @@
         <v>2</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3439,10 +3433,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F23" s="3">
         <v>3</v>
@@ -3451,25 +3445,25 @@
         <v>3</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3478,19 +3472,19 @@
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3504,10 +3498,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F24" s="3">
         <v>4</v>
@@ -3516,25 +3510,25 @@
         <v>4</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -3543,19 +3537,19 @@
         <v>4</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3569,10 +3563,10 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F25" s="3">
         <v>3</v>
@@ -3581,25 +3575,25 @@
         <v>3</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -3608,19 +3602,19 @@
         <v>3</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3634,10 +3628,10 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F26" s="3">
         <v>3</v>
@@ -3646,25 +3640,25 @@
         <v>3</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -3673,19 +3667,19 @@
         <v>2</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3699,37 +3693,37 @@
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="3">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3">
-        <v>2</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="N27" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -3738,19 +3732,19 @@
         <v>1</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3764,10 +3758,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F28" s="3">
         <v>4</v>
@@ -3776,25 +3770,25 @@
         <v>4</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -3803,19 +3797,19 @@
         <v>2</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3829,10 +3823,10 @@
         <v>4</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F29" s="3">
         <v>4</v>
@@ -3841,25 +3835,25 @@
         <v>4</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3868,19 +3862,19 @@
         <v>4</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3894,10 +3888,10 @@
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F30" s="3">
         <v>3</v>
@@ -3906,25 +3900,25 @@
         <v>3</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -3933,19 +3927,19 @@
         <v>3</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -3959,10 +3953,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F31" s="3">
         <v>2</v>
@@ -3971,25 +3965,25 @@
         <v>2</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -3998,19 +3992,19 @@
         <v>1</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4024,37 +4018,37 @@
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="3">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="N32" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -4063,19 +4057,19 @@
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4089,10 +4083,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F33" s="3">
         <v>3</v>
@@ -4101,25 +4095,25 @@
         <v>3</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -4128,19 +4122,19 @@
         <v>2</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4154,37 +4148,37 @@
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3">
+        <v>3</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="3">
-        <v>3</v>
-      </c>
-      <c r="G34" s="3">
-        <v>3</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="N34" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -4193,19 +4187,19 @@
         <v>3</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4219,37 +4213,37 @@
         <v>4</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="3">
-        <v>4</v>
-      </c>
-      <c r="G35" s="3">
-        <v>4</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="N35" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -4258,19 +4252,19 @@
         <v>2</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4284,37 +4278,37 @@
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3">
+        <v>2</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="3">
-        <v>2</v>
-      </c>
-      <c r="G36" s="3">
-        <v>2</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="N36" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -4323,19 +4317,19 @@
         <v>2</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4349,10 +4343,10 @@
         <v>4</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F37" s="3">
         <v>3</v>
@@ -4361,25 +4355,25 @@
         <v>2</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -4388,19 +4382,19 @@
         <v>2</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4414,37 +4408,37 @@
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="3">
+        <v>3</v>
+      </c>
+      <c r="G38" s="3">
+        <v>3</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="3">
-        <v>3</v>
-      </c>
-      <c r="G38" s="3">
-        <v>3</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="N38" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -4453,19 +4447,19 @@
         <v>3</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4479,37 +4473,37 @@
         <v>4</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="3">
+        <v>3</v>
+      </c>
+      <c r="G39" s="3">
+        <v>3</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="3">
-        <v>3</v>
-      </c>
-      <c r="G39" s="3">
-        <v>3</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="N39" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
@@ -4518,19 +4512,19 @@
         <v>3</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4544,10 +4538,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F40" s="3">
         <v>4</v>
@@ -4556,25 +4550,25 @@
         <v>4</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
@@ -4583,19 +4577,19 @@
         <v>4</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4609,10 +4603,10 @@
         <v>4</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F41" s="3">
         <v>4</v>
@@ -4621,25 +4615,25 @@
         <v>4</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
@@ -4648,19 +4642,19 @@
         <v>4</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4674,10 +4668,10 @@
         <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F42" s="3">
         <v>4</v>
@@ -4686,25 +4680,25 @@
         <v>3</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
@@ -4713,19 +4707,19 @@
         <v>3</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4739,10 +4733,10 @@
         <v>4</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F43" s="3">
         <v>4</v>
@@ -4751,25 +4745,25 @@
         <v>3</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -4778,19 +4772,19 @@
         <v>2</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4804,37 +4798,37 @@
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="3">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="N44" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
@@ -4843,19 +4837,19 @@
         <v>3</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4869,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F45" s="3">
         <v>2</v>
@@ -4881,25 +4875,25 @@
         <v>1</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
@@ -4908,19 +4902,19 @@
         <v>1</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4934,10 +4928,10 @@
         <v>3</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F46" s="3">
         <v>3</v>
@@ -4946,25 +4940,25 @@
         <v>3</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
@@ -4973,19 +4967,19 @@
         <v>3</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W46" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="W46" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -4999,10 +4993,10 @@
         <v>3</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F47" s="3">
         <v>3</v>
@@ -5011,25 +5005,25 @@
         <v>3</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
@@ -5038,19 +5032,19 @@
         <v>3</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5064,10 +5058,10 @@
         <v>3</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F48" s="3">
         <v>3</v>
@@ -5076,25 +5070,25 @@
         <v>2</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
@@ -5103,19 +5097,19 @@
         <v>3</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="W48" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5129,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F49" s="3">
         <v>3</v>
@@ -5141,25 +5135,25 @@
         <v>4</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
@@ -5168,19 +5162,19 @@
         <v>3</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5194,10 +5188,10 @@
         <v>3</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F50" s="3">
         <v>3</v>
@@ -5206,25 +5200,25 @@
         <v>3</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -5233,19 +5227,19 @@
         <v>2</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5259,10 +5253,10 @@
         <v>3</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F51" s="3">
         <v>3</v>
@@ -5271,25 +5265,25 @@
         <v>3</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
@@ -5298,19 +5292,19 @@
         <v>2</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W51" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="W51" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5324,10 +5318,10 @@
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F52" s="3">
         <v>1</v>
@@ -5336,25 +5330,25 @@
         <v>3</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="N52" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
@@ -5363,19 +5357,19 @@
         <v>2</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5389,10 +5383,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F53" s="3">
         <v>1</v>
@@ -5408,31 +5402,31 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R53" s="3">
         <v>1</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5446,10 +5440,10 @@
         <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F54" s="3">
         <v>2</v>
@@ -5465,31 +5459,31 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R54" s="3">
         <v>1</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5503,10 +5497,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F55" s="3">
         <v>2</v>
@@ -5522,31 +5516,31 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R55" s="3">
         <v>2</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5560,10 +5554,10 @@
         <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F56" s="3">
         <v>3</v>
@@ -5579,31 +5573,31 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R56" s="3">
         <v>3</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5617,10 +5611,10 @@
         <v>3</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F57" s="3">
         <v>1</v>
@@ -5636,31 +5630,31 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R57" s="3">
         <v>1</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5674,10 +5668,10 @@
         <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F58" s="3">
         <v>3</v>
@@ -5693,31 +5687,31 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R58" s="3">
         <v>2</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5731,10 +5725,10 @@
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F59" s="3">
         <v>3</v>
@@ -5750,31 +5744,31 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R59" s="3">
         <v>2</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5788,10 +5782,10 @@
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F60" s="3">
         <v>3</v>
@@ -5807,31 +5801,31 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R60" s="3">
         <v>2</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U60" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5845,10 +5839,10 @@
         <v>3</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F61" s="3">
         <v>2</v>
@@ -5864,31 +5858,31 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R61" s="3">
         <v>1</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5902,10 +5896,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F62" s="3">
         <v>2</v>
@@ -5921,31 +5915,31 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R62" s="3">
         <v>3</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -5959,10 +5953,10 @@
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F63" s="3">
         <v>2</v>
@@ -5978,31 +5972,31 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R63" s="3">
         <v>1</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6016,10 +6010,10 @@
         <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F64" s="3">
         <v>1</v>
@@ -6035,31 +6029,31 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R64" s="3">
         <v>1</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U64" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6073,10 +6067,10 @@
         <v>3</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F65" s="3">
         <v>2</v>
@@ -6092,31 +6086,31 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R65" s="3">
         <v>1</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6130,10 +6124,10 @@
         <v>2</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F66" s="3">
         <v>3</v>
@@ -6149,31 +6143,31 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R66" s="3">
         <v>3</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6187,10 +6181,10 @@
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F67" s="3">
         <v>2</v>
@@ -6206,31 +6200,31 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R67" s="3">
         <v>1</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U67" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6244,10 +6238,10 @@
         <v>2</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F68" s="3">
         <v>3</v>
@@ -6263,31 +6257,31 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R68" s="3">
         <v>2</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U68" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6301,10 +6295,10 @@
         <v>2</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F69" s="3">
         <v>3</v>
@@ -6320,31 +6314,31 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R69" s="3">
         <v>2</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T69" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U69" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V69" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6358,10 +6352,10 @@
         <v>1</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F70" s="3">
         <v>1</v>
@@ -6377,31 +6371,31 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R70" s="3">
         <v>2</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U70" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6415,10 +6409,10 @@
         <v>2</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F71" s="3">
         <v>3</v>
@@ -6434,31 +6428,31 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R71" s="3">
         <v>1</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U71" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6472,10 +6466,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F72" s="3">
         <v>2</v>
@@ -6491,31 +6485,31 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R72" s="3">
         <v>3</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T72" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U72" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6529,10 +6523,10 @@
         <v>3</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F73" s="3">
         <v>2</v>
@@ -6548,31 +6542,31 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R73" s="3">
         <v>2</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T73" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U73" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6586,10 +6580,10 @@
         <v>3</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F74" s="3">
         <v>3</v>
@@ -6605,31 +6599,31 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R74" s="3">
         <v>2</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6643,10 +6637,10 @@
         <v>2</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F75" s="3">
         <v>3</v>
@@ -6662,31 +6656,31 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R75" s="3">
         <v>2</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T75" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U75" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6700,10 +6694,10 @@
         <v>2</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F76" s="3">
         <v>2</v>
@@ -6719,31 +6713,31 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R76" s="3">
         <v>3</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V76" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6757,10 +6751,10 @@
         <v>2</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F77" s="3">
         <v>3</v>
@@ -6776,31 +6770,31 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R77" s="3">
         <v>2</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T77" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U77" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6814,10 +6808,10 @@
         <v>2</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F78" s="3">
         <v>3</v>
@@ -6833,31 +6827,31 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R78" s="3">
         <v>1</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6871,10 +6865,10 @@
         <v>2</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F79" s="3">
         <v>3</v>
@@ -6890,31 +6884,31 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="R79" s="3">
         <v>2</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U79" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="V79" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6928,10 +6922,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F80" s="3">
         <v>3</v>
@@ -6947,31 +6941,31 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R80" s="3">
         <v>2</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U80" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -6985,10 +6979,10 @@
         <v>2</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F81" s="3">
         <v>2</v>
@@ -7004,31 +6998,31 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R81" s="3">
         <v>1</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T81" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U81" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V81" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7042,10 +7036,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F82" s="3">
         <v>4</v>
@@ -7061,31 +7055,31 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R82" s="3">
         <v>1</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U82" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V82" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V82" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="W82" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7099,10 +7093,10 @@
         <v>1</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F83" s="3">
         <v>1</v>
@@ -7118,31 +7112,31 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R83" s="3">
         <v>2</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T83" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U83" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V83" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W83" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7156,10 +7150,10 @@
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F84" s="3">
         <v>3</v>
@@ -7175,31 +7169,31 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P84" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R84" s="3">
         <v>2</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T84" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U84" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V84" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W84" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7213,10 +7207,10 @@
         <v>2</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F85" s="3">
         <v>2</v>
@@ -7232,31 +7226,31 @@
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R85" s="3">
         <v>1</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T85" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U85" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V85" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W85" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7270,10 +7264,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F86" s="3">
         <v>3</v>
@@ -7289,31 +7283,31 @@
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R86" s="3">
         <v>2</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U86" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V86" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W86" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="W86" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7327,10 +7321,10 @@
         <v>2</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F87" s="3">
         <v>2</v>
@@ -7346,31 +7340,31 @@
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R87" s="3">
         <v>3</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T87" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U87" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V87" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7384,10 +7378,10 @@
         <v>2</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F88" s="3">
         <v>2</v>
@@ -7403,31 +7397,31 @@
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R88" s="3">
         <v>3</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U88" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V88" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W88" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7441,10 +7435,10 @@
         <v>3</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F89" s="3">
         <v>3</v>
@@ -7460,31 +7454,31 @@
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R89" s="3">
         <v>2</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T89" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U89" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V89" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W89" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7498,10 +7492,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F90" s="3">
         <v>2</v>
@@ -7517,31 +7511,31 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="R90" s="3">
         <v>3</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T90" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U90" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V90" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W90" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7555,10 +7549,10 @@
         <v>2</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F91" s="3">
         <v>2</v>
@@ -7574,31 +7568,31 @@
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R91" s="3">
         <v>2</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T91" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U91" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V91" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W91" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7612,10 +7606,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F92" s="3">
         <v>3</v>
@@ -7631,31 +7625,31 @@
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R92" s="3">
         <v>1</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T92" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U92" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V92" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W92" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7669,10 +7663,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F93" s="3">
         <v>3</v>
@@ -7688,31 +7682,31 @@
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P93" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R93" s="3">
         <v>3</v>
       </c>
       <c r="S93" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T93" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U93" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V93" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W93" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7726,10 +7720,10 @@
         <v>2</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F94" s="3">
         <v>2</v>
@@ -7745,31 +7739,31 @@
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R94" s="3">
         <v>1</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U94" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V94" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W94" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7783,10 +7777,10 @@
         <v>2</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F95" s="3">
         <v>2</v>
@@ -7802,31 +7796,31 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P95" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R95" s="3">
         <v>2</v>
       </c>
       <c r="S95" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T95" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U95" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V95" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W95" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7840,10 +7834,10 @@
         <v>1</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F96" s="3">
         <v>3</v>
@@ -7859,31 +7853,31 @@
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R96" s="3">
         <v>1</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T96" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U96" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V96" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W96" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7897,10 +7891,10 @@
         <v>2</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F97" s="3">
         <v>1</v>
@@ -7916,31 +7910,31 @@
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R97" s="3">
         <v>1</v>
       </c>
       <c r="S97" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T97" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U97" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V97" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W97" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -7954,10 +7948,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F98" s="3">
         <v>3</v>
@@ -7973,31 +7967,31 @@
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R98" s="3">
         <v>2</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T98" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U98" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V98" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W98" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8011,10 +8005,10 @@
         <v>2</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F99" s="3">
         <v>1</v>
@@ -8030,31 +8024,31 @@
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R99" s="3">
         <v>1</v>
       </c>
       <c r="S99" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T99" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U99" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V99" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W99" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8068,10 +8062,10 @@
         <v>2</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F100" s="3">
         <v>2</v>
@@ -8087,31 +8081,31 @@
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P100" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R100" s="3">
         <v>1</v>
       </c>
       <c r="S100" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U100" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V100" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W100" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8125,10 +8119,10 @@
         <v>2</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F101" s="3">
         <v>2</v>
@@ -8144,31 +8138,31 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R101" s="3">
         <v>1</v>
       </c>
       <c r="S101" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T101" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U101" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V101" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W101" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8182,10 +8176,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F102" s="3">
         <v>2</v>
@@ -8201,31 +8195,31 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P102" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R102" s="3">
         <v>2</v>
       </c>
       <c r="S102" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T102" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="W102" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8239,10 +8233,10 @@
         <v>3</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F103" s="3">
         <v>2</v>
@@ -8258,31 +8252,31 @@
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R103" s="3">
         <v>2</v>
       </c>
       <c r="S103" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T103" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U103" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V103" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W103" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8296,10 +8290,10 @@
         <v>2</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F104" s="3">
         <v>2</v>
@@ -8315,31 +8309,31 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="R104" s="3">
         <v>2</v>
       </c>
       <c r="S104" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T104" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U104" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V104" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W104" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8353,10 +8347,10 @@
         <v>2</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F105" s="3">
         <v>2</v>
@@ -8372,31 +8366,31 @@
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R105" s="3">
         <v>2</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T105" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U105" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V105" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W105" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8410,10 +8404,10 @@
         <v>2</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F106" s="3">
         <v>2</v>
@@ -8429,31 +8423,31 @@
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R106" s="3">
         <v>2</v>
       </c>
       <c r="S106" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T106" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U106" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V106" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W106" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8467,10 +8461,10 @@
         <v>3</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F107" s="3">
         <v>2</v>
@@ -8486,31 +8480,31 @@
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
       <c r="O107" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R107" s="3">
         <v>2</v>
       </c>
       <c r="S107" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T107" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U107" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V107" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W107" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8524,10 +8518,10 @@
         <v>3</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
@@ -8543,31 +8537,31 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P108" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R108" s="3">
         <v>1</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T108" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U108" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V108" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W108" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8581,10 +8575,10 @@
         <v>2</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F109" s="3">
         <v>2</v>
@@ -8600,31 +8594,31 @@
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
       <c r="O109" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P109" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R109" s="3">
         <v>2</v>
       </c>
       <c r="S109" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T109" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U109" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V109" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W109" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8638,10 +8632,10 @@
         <v>1</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -8657,31 +8651,31 @@
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
       <c r="O110" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R110" s="3">
         <v>1</v>
       </c>
       <c r="S110" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T110" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U110" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V110" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W110" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8695,10 +8689,10 @@
         <v>2</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F111" s="3">
         <v>1</v>
@@ -8714,31 +8708,31 @@
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P111" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R111" s="3">
         <v>1</v>
       </c>
       <c r="S111" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T111" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U111" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V111" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W111" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8752,10 +8746,10 @@
         <v>2</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F112" s="3">
         <v>2</v>
@@ -8771,31 +8765,31 @@
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
       <c r="O112" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P112" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R112" s="3">
         <v>2</v>
       </c>
       <c r="S112" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T112" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V112" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W112" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8809,10 +8803,10 @@
         <v>2</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F113" s="3">
         <v>3</v>
@@ -8828,31 +8822,31 @@
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q113" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R113" s="3">
         <v>2</v>
       </c>
       <c r="S113" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T113" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U113" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V113" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W113" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8866,10 +8860,10 @@
         <v>2</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F114" s="3">
         <v>3</v>
@@ -8885,31 +8879,31 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P114" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R114" s="3">
         <v>2</v>
       </c>
       <c r="S114" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T114" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U114" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V114" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W114" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8923,10 +8917,10 @@
         <v>2</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F115" s="3">
         <v>3</v>
@@ -8942,31 +8936,31 @@
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P115" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R115" s="3">
         <v>3</v>
       </c>
       <c r="S115" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T115" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U115" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V115" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W115" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -8980,10 +8974,10 @@
         <v>2</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F116" s="3">
         <v>2</v>
@@ -8999,31 +8993,31 @@
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P116" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R116" s="3">
         <v>3</v>
       </c>
       <c r="S116" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T116" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U116" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V116" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W116" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9037,10 +9031,10 @@
         <v>3</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F117" s="3">
         <v>1</v>
@@ -9056,31 +9050,31 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P117" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q117" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R117" s="3">
         <v>2</v>
       </c>
       <c r="S117" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T117" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U117" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V117" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W117" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9094,10 +9088,10 @@
         <v>3</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F118" s="3">
         <v>3</v>
@@ -9113,31 +9107,31 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P118" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q118" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="R118" s="3">
         <v>2</v>
       </c>
       <c r="S118" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T118" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U118" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V118" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W118" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9151,10 +9145,10 @@
         <v>2</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F119" s="3">
         <v>2</v>
@@ -9170,31 +9164,31 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P119" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R119" s="3">
         <v>2</v>
       </c>
       <c r="S119" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T119" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U119" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V119" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W119" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9208,10 +9202,10 @@
         <v>1</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F120" s="3">
         <v>2</v>
@@ -9227,31 +9221,31 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P120" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R120" s="3">
         <v>2</v>
       </c>
       <c r="S120" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T120" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U120" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V120" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W120" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9265,10 +9259,10 @@
         <v>2</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F121" s="3">
         <v>3</v>
@@ -9284,31 +9278,31 @@
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P121" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R121" s="3">
         <v>2</v>
       </c>
       <c r="S121" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T121" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U121" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V121" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W121" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9322,10 +9316,10 @@
         <v>1</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9341,31 +9335,31 @@
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P122" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R122" s="3">
         <v>1</v>
       </c>
       <c r="S122" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T122" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U122" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V122" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W122" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9379,10 +9373,10 @@
         <v>1</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F123" s="3">
         <v>2</v>
@@ -9398,31 +9392,31 @@
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P123" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R123" s="3">
         <v>1</v>
       </c>
       <c r="S123" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T123" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U123" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V123" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W123" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9436,10 +9430,10 @@
         <v>2</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F124" s="3">
         <v>2</v>
@@ -9455,31 +9449,31 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P124" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q124" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R124" s="3">
         <v>1</v>
       </c>
       <c r="S124" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T124" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U124" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V124" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W124" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9493,10 +9487,10 @@
         <v>3</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F125" s="3">
         <v>2</v>
@@ -9512,31 +9506,31 @@
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P125" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q125" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R125" s="3">
         <v>1</v>
       </c>
       <c r="S125" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T125" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U125" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V125" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W125" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9550,10 +9544,10 @@
         <v>3</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F126" s="3">
         <v>2</v>
@@ -9569,31 +9563,31 @@
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P126" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q126" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="R126" s="3">
         <v>2</v>
       </c>
       <c r="S126" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T126" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U126" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V126" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W126" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="13" x14ac:dyDescent="0.15">
@@ -9607,10 +9601,10 @@
         <v>2</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F127" s="3">
         <v>2</v>
@@ -9626,31 +9620,31 @@
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P127" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q127" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R127" s="3">
         <v>1</v>
       </c>
       <c r="S127" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T127" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U127" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V127" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W127" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9664,10 +9658,10 @@
         <v>1</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9683,31 +9677,31 @@
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P128" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q128" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R128" s="3">
         <v>1</v>
       </c>
       <c r="S128" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T128" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U128" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V128" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W128" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9721,10 +9715,10 @@
         <v>2</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F129" s="3">
         <v>2</v>
@@ -9740,35 +9734,35 @@
       <c r="M129" s="9"/>
       <c r="N129" s="9"/>
       <c r="O129" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q129" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R129" s="3">
         <v>1</v>
       </c>
       <c r="S129" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T129" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U129" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V129" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W129" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
